--- a/public/imports/thunkline_points.xlsx
+++ b/public/imports/thunkline_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC0878D-F3EA-41F9-A032-759CC281B8CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C563E-4886-47C2-AE53-F4E426C40657}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Начальная точка</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>[[52.57754535, 43.50336821], [52.57755197, 43.50336704], [52.57867508, 43.50333715], [52.579805, 43.50330707], [52.58093491, 43.50327697], [52.58106801, 43.50327343], [52.58206233, 43.50321564], [52.58318941, 43.50315013], [52.58431649, 43.50308461], [52.58544357, 43.50301907], [52.58657064, 43.50295353], [52.58732049, 43.50290991], [52.5876903, 43.50285144], [52.58879519, 43.50267674], [52.58990008, 43.50250203], [52.59100496, 43.5023273], [52.59210984, 43.50215257], [52.59275435, 43.50205063], [52.59294514, 43.50207361], [52.59318243, 43.50217864], [52.5941485, 43.50260625], [52.59511459, 43.50303385], [52.59567157, 43.50328037], [52.59579642, 43.50329589], [52.59613843, 43.50323482], [52.59723654, 43.50303873], [52.59833464, 43.50284263], [52.59943273, 43.50264652], [52.60053082, 43.5024504], [52.6016289, 43.50225427], [52.60272698, 43.50205813], [52.60382504, 43.50186198], [52.6049231, 43.50166582], [52.60602116, 43.50146965], [52.6071192, 43.50127347], [52.60772204, 43.50116576], [52.60818131, 43.50100451], [52.60919967, 43.50064696], [52.60930356, 43.50061048], [52.61025949, 43.50036152], [52.61132402, 43.50008426], [52.61174222, 43.49997533], [52.61240433, 43.49984346], [52.61349485, 43.49962625], [52.61458536, 43.49940903], [52.61567587, 43.4991918], [52.61676636, 43.49897456], [52.61785685, 43.49875731], [52.61894734, 43.49854005], [52.61998675, 43.49833295], [52.62003824, 43.49832399], [52.62109933, 43.49813935], [52.62113764, 43.49813209], [52.62223176, 43.49792476], [52.62332586, 43.49771742], [52.62441996, 43.49751007], [52.62481862, 43.49743452], [52.62550605, 43.49730853], [52.62551552, 43.4973069], [52.62661576, 43.49711758], [52.62723973, 43.4970102], [52.62771194, 43.49691664], [52.62880281, 43.49670049], [52.62989366, 43.49648433], [52.63098451, 43.49626816], [52.63176191, 43.49611409], [52.63208609, 43.49609893], [52.63241662, 43.49608346]]</t>
+  </si>
+  <si>
+    <t>[[52.74803918, 43.45051436], [52.74805673, 43.45051344], [52.74808001, 43.45051376]]</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4909E-F074-42A7-961F-16B93AFF1F24}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1201,6 +1204,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/imports/thunkline_points.xlsx
+++ b/public/imports/thunkline_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C563E-4886-47C2-AE53-F4E426C40657}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6AE0E7-37BE-4A28-869C-5F511137457E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4909E-F074-42A7-961F-16B93AFF1F24}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>74</v>

--- a/public/imports/thunkline_points.xlsx
+++ b/public/imports/thunkline_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6AE0E7-37BE-4A28-869C-5F511137457E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F71C7C-D93F-4D28-84A0-F94C9425BD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="311">
   <si>
     <t>Начальная точка</t>
   </si>
@@ -268,13 +268,703 @@
   </si>
   <si>
     <t>[[52.74803918, 43.45051436], [52.74805673, 43.45051344], [52.74808001, 43.45051376]]</t>
+  </si>
+  <si>
+    <t>MGU-65</t>
+  </si>
+  <si>
+    <t>K-10</t>
+  </si>
+  <si>
+    <t>[[52.95539983, 43.38885385], [52.95611454, 43.38869713], [52.95628856, 43.38866196], [52.95648383, 43.38862527], [52.95658525, 43.38860622], [52.95699052, 43.38929189], [52.95702141, 43.38934415], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>MGU-74</t>
+  </si>
+  <si>
+    <t>UP_MGU-2,74</t>
+  </si>
+  <si>
+    <t>[[52.99373226, 43.38463773], [52.99340138, 43.38411522], [52.99326393, 43.38388894], [52.99294703, 43.38336724], [52.99279285, 43.38314124], [52.99236161, 43.38250909], [52.99229291, 43.3824034], [52.99180953, 43.3816597], [52.99159758, 43.38133361], [52.99134835, 43.3809087], [52.9909045, 43.380152], [52.99048015, 43.3794285], [52.99046152, 43.37939504], [52.99004843, 43.37865302]]</t>
+  </si>
+  <si>
+    <t>MGU-11</t>
+  </si>
+  <si>
+    <t>[[52.95255703, 43.38264906], [52.95230766, 43.38272826], [52.95254733, 43.38312939], [52.95258444, 43.3831915], [52.95310646, 43.38384381], [52.95314876, 43.38389667], [52.95383913, 43.38446838], [52.95458498, 43.38508602], [52.95473068, 43.38520668], [52.95494511, 43.38542816], [52.95513098, 43.38579504], [52.95522375, 43.38597816], [52.95554929, 43.38655936], [52.95597606, 43.38732128], [52.95640284, 43.38808319], [52.95645648, 43.38817895], [52.95681065, 43.3888506], [52.95694901, 43.38911297], [52.9570755, 43.38935476], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>PS-3</t>
+  </si>
+  <si>
+    <t>UP_PS-3</t>
+  </si>
+  <si>
+    <t>[[52.93604489, 43.38301555], [52.93607688, 43.38300933], [52.93633073, 43.3831348], [52.93683707, 43.38338508], [52.93689033, 43.38340918], [52.93703613, 43.38348731], [52.93725335, 43.38360813], [52.93815065, 43.38410722], [52.93904796, 43.3846063], [52.93994529, 43.38510538], [52.94032149, 43.38531461], [52.94066786, 43.38572039], [52.94096742, 43.38607132], [52.94128559, 43.38640892], [52.94192483, 43.38708718], [52.94256408, 43.38776544], [52.94302704, 43.38825664], [52.94319196, 43.38844915], [52.94378993, 43.38914716], [52.94393377, 43.38931506], [52.9447567, 43.38948975], [52.94584029, 43.38971976], [52.9465456, 43.38986947], [52.94682732, 43.39007033], [52.94763431, 43.3906457], [52.94798268, 43.39089408], [52.94843888, 43.39122285], [52.94924163, 43.39180137], [52.94961104, 43.39206758], [52.94983044, 43.39225483], [52.94991265, 43.39233525], [52.94999281, 43.39241353]]</t>
+  </si>
+  <si>
+    <t>MGU-68</t>
+  </si>
+  <si>
+    <t>K-13</t>
+  </si>
+  <si>
+    <t>[[52.96824193, 43.36925796], [52.96834581, 43.36941818], [52.96852601, 43.36964909], [52.96875873, 43.36997811], [52.96876458, 43.36998699], [52.96894038, 43.370254], [52.96919777, 43.37058259], [52.96928969, 43.37071494], [52.96946953, 43.37097393], [52.96979446, 43.37145101], [52.96984519, 43.3715255], [52.97023173, 43.37203187], [52.9703408, 43.372171], [52.97065643, 43.37257359], [52.97090831, 43.37288231], [52.97105473, 43.37306176], [52.97144896, 43.37360448], [52.97150673, 43.373684], [52.9719702, 43.37427905], [52.97200502, 43.37432055], [52.9723424, 43.37472266], [52.97259786, 43.37502081], [52.97275277, 43.37520161], [52.97306186, 43.3756013], [52.97318914, 43.3757203], [52.9733927, 43.37591062], [52.97384367, 43.37639031], [52.97394224, 43.37649517], [52.97424901, 43.37682289], [52.9744785, 43.37707072], [52.97468378, 43.37729242], [52.97500948, 43.37779457], [52.97520336, 43.37809349], [52.97543191, 43.37855676], [52.97557321, 43.37884315], [52.97585286, 43.37932002], [52.97604348, 43.37964508], [52.97623586, 43.38009312], [52.97637723, 43.38042236], [52.97653669, 43.38088602], [52.97666341, 43.38125447], [52.97684285, 43.38167788], [52.97689061, 43.38179057], [52.97724621, 43.38244622], [52.97725816, 43.38246826], [52.97732063, 43.38263777], [52.97709398, 43.38273212]]</t>
+  </si>
+  <si>
+    <t>ГУ-3</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>[[52.93306869, 43.3817827], [52.93259811, 43.38196072], [52.93253818, 43.38222792], [52.93257854, 43.38239092], [52.93277911, 43.38320086], [52.93286971, 43.38356671], [52.93301027, 43.38400618], [52.93326664, 43.3848077], [52.93331268, 43.38495164], [52.93348183, 43.38561551], [52.93368801, 43.38642469], [52.9338942, 43.38723388], [52.93397651, 43.38755692], [52.93412223, 43.38803983], [52.93436479, 43.38884364], [52.93437072, 43.38886328], [52.93479452, 43.38960434], [52.93521251, 43.39033523], [52.93523158, 43.39036308], [52.93531224, 43.39048084], [52.93578675, 43.39107941], [52.93587762, 43.39119405], [52.93637583, 43.39177022], [52.93638499, 43.39177693], [52.93660125, 43.3919352], [52.93719879, 43.39234708], [52.93801899, 43.39291244], [52.93836757, 43.3931527], [52.93885842, 43.39343255], [52.93887626, 43.39344626], [52.93943506, 43.39387566], [52.93966229, 43.3940367], [52.93975275, 43.39410082], [52.94001862, 43.39429392], [52.94019761, 43.39441851], [52.94034261, 43.39453956], [52.94045272, 43.39462361], [52.94048238, 43.39464624], [52.94059482, 43.39477747], [52.94125278, 43.39515118]]</t>
+  </si>
+  <si>
+    <t>MGU-66</t>
+  </si>
+  <si>
+    <t>[[52.94432809, 43.37107125], [52.94442217, 43.37131266], [52.94459081, 43.37157081], [52.9447591, 43.37182923], [52.94513576, 43.3724076], [52.94524531, 43.37257192], [52.94562823, 43.37314627], [52.94573177, 43.37331445], [52.94619399, 43.37406525], [52.94660433, 43.37473176], [52.94665813, 43.37481542], [52.94713729, 43.37556055], [52.94761646, 43.37630569], [52.9478639, 43.37669044], [52.94808869, 43.37705316], [52.9485535, 43.37780312], [52.94901832, 43.37855308], [52.94948316, 43.37930304], [52.94950339, 43.37933568], [52.94995918, 43.38004925], [52.95043572, 43.3807953], [52.95091227, 43.38154134], [52.95091951, 43.38155267], [52.95111461, 43.38186436], [52.9514501, 43.38226317], [52.95152515, 43.38235239], [52.95211987, 43.38292502], [52.95264572, 43.38343133], [52.95280975, 43.38357617], [52.95352839, 43.38421073], [52.95424704, 43.38484529], [52.95485568, 43.38538269], [52.95494054, 43.38549246], [52.9550617, 43.38564918], [52.95540493, 43.38624158], [52.95584421, 43.38699971], [52.95592406, 43.38713753], [52.95617636, 43.38769125], [52.95621808, 43.38777587], [52.9563612, 43.38806611], [52.95650469, 43.38830667], [52.9566243, 43.38854338], [52.95684739, 43.38898485], [52.95701614, 43.38924298], [52.95704538, 43.38930605], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>ГУ-77</t>
+  </si>
+  <si>
+    <t>UP_GU-77</t>
+  </si>
+  <si>
+    <t>[[53.0019186, 43.37473962], [53.00200226, 43.37465715], [53.00194583, 43.37444212], [53.00192373, 43.37414549], [53.00183569, 43.37404176]]</t>
+  </si>
+  <si>
+    <t>ГУ-80</t>
+  </si>
+  <si>
+    <t>UP_GU-80</t>
+  </si>
+  <si>
+    <t>[[53.03443084, 43.3684683], [53.03451415, 43.36800779], [53.03461431, 43.36765678], [53.03471292, 43.36731121], [53.03484683, 43.36685141], [53.03493425, 43.36655122], [53.03511899, 43.36605298], [53.03514926, 43.36597135], [53.03532126, 43.36558127]]</t>
+  </si>
+  <si>
+    <t>ГУ-60</t>
+  </si>
+  <si>
+    <t>[[52.94271897, 43.39869792], [52.94225259, 43.39852059], [52.94226969, 43.39832775], [52.94231622, 43.39780311], [52.94218949, 43.39752053], [52.94183867, 43.39673826], [52.94153365, 43.39605812], [52.94150649, 43.39595251], [52.94140842, 43.39557107], [52.94125278, 43.39515118]]</t>
+  </si>
+  <si>
+    <t>MGU-15</t>
+  </si>
+  <si>
+    <t>[[52.97411439, 43.37761727], [52.97416255, 43.37758044], [52.97445291, 43.37778244], [52.97470095, 43.37820118], [52.97471287, 43.3782228], [52.97509428, 43.37891443], [52.97513158, 43.37898705], [52.97551581, 43.3797352], [52.975527, 43.3797579], [52.97590908, 43.38053232], [52.97593851, 43.38059195], [52.97628108, 43.38126108], [52.9763038, 43.38130335], [52.97663571, 43.38192099], [52.97670983, 43.38207121], [52.97676781, 43.38218872], [52.97685911, 43.38234016], [52.97694954, 43.3824646], [52.97712981, 43.3826955], [52.97709398, 43.38273212]]</t>
+  </si>
+  <si>
+    <t>ГУ-61</t>
+  </si>
+  <si>
+    <t>[[52.93605334, 43.3908615], [52.93601171, 43.39087429], [52.93632698, 43.39115656], [52.93642974, 43.39128835], [52.93665897, 43.39150599], [52.93681239, 43.39165166], [52.93727611, 43.3920308], [52.93739644, 43.3921285], [52.93807587, 43.39268008], [52.93814401, 43.3927448], [52.9385358, 43.39311692], [52.93889205, 43.39335722], [52.93909546, 43.39349442], [52.93969305, 43.39393681], [52.93987553, 43.39407191], [52.94025957, 43.39434952], [52.94047164, 43.39453185], [52.94073255, 43.39475616], [52.9409466, 43.39492977], [52.94112616, 43.39504102], [52.94123506, 43.39513576], [52.94125278, 43.39515118]]</t>
+  </si>
+  <si>
+    <t>MGU-2</t>
+  </si>
+  <si>
+    <t>[[52.98884767, 43.37277965], [52.98903671, 43.37359105], [52.98922575, 43.37440246], [52.98938346, 43.37507941], [52.98943472, 43.37521057], [52.98974407, 43.37600208], [52.98994303, 43.37651115], [52.99005405, 43.37679345], [52.99029409, 43.37740381], [52.99035743, 43.37758611], [52.99049655, 43.37798655], [52.99056067, 43.37839381], [52.9905744, 43.37848099], [52.99004843, 43.37865302]]</t>
+  </si>
+  <si>
+    <t>ГУ-82</t>
+  </si>
+  <si>
+    <t>UP_GU-82</t>
+  </si>
+  <si>
+    <t>[[53.01904387, 43.37583355], [53.01933595, 43.37571138], [53.01933535, 43.37569339], [53.01931764, 43.37553169], [53.01928641, 43.37533423], [53.0192177, 43.3751422], [53.01917761, 43.37503013], [53.01899034, 43.37459241], [53.01891396, 43.37435005], [53.01886622, 43.37419858], [53.01866364, 43.37367112], [53.0186332, 43.37355335], [53.01853625, 43.37317834], [53.01844307, 43.37274218], [53.01841939, 43.37263136], [53.01823611, 43.37194156], [53.01823413, 43.37193344], [53.01806487, 43.37124253], [53.01803172, 43.37112378], [53.01799486, 43.37099175], [53.01789811, 43.37067844], [53.01779111, 43.37042831], [53.0177746, 43.37032389], [53.01774427, 43.37013212], [53.01769953, 43.36989889], [53.01759445, 43.36951192], [53.01757304, 43.36943309], [53.01764534, 43.36900879], [53.01769606, 43.36869585], [53.01769655, 43.36869287], [53.01769327, 43.36859392], [53.01770172, 43.36847676], [53.01771345, 43.36845855]]</t>
+  </si>
+  <si>
+    <t>MGU-16</t>
+  </si>
+  <si>
+    <t>[[52.96239771, 43.39650613], [52.96240528, 43.39625795], [52.96224589, 43.39604988], [52.96169546, 43.39533135], [52.96144242, 43.39500102], [52.96114294, 43.39461368], [52.96058862, 43.39389674], [52.96007273, 43.39322948], [52.96003358, 43.39318011], [52.95946853, 43.39246765], [52.95902881, 43.3919132], [52.95890483, 43.39175463], [52.95834582, 43.39103964], [52.95808153, 43.3907016], [52.95778073, 43.39032722], [52.95767464, 43.39019518], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>ГУ-81</t>
+  </si>
+  <si>
+    <t>UP_GU-81</t>
+  </si>
+  <si>
+    <t>[[53.02838726, 43.35809678], [53.02828704, 43.35810977], [53.0282263, 43.35813785], [53.02825246, 43.35818239], [53.02827404, 43.35883006], [53.02827584, 43.35888403], [53.02824695, 43.35912755], [53.02825353, 43.35965215], [53.0282544, 43.35972146], [53.02824443, 43.36016267], [53.02822812, 43.36047491], [53.02821431, 43.36073924], [53.02819231, 43.36118966], [53.02817956, 43.36129707], [53.02810563, 43.36192025], [53.02808228, 43.36211705], [53.02801895, 43.36265083], [53.0279919, 43.36293742], [53.02795513, 43.36332701], [53.02790151, 43.36375776], [53.02786755, 43.36403061], [53.02782808, 43.36457893], [53.02781695, 43.36473356], [53.02778133, 43.36540125], [53.02777899, 43.36544528], [53.02775155, 43.36610281], [53.02773599, 43.36622343], [53.02769845, 43.36651446]]</t>
+  </si>
+  <si>
+    <t>ГУ-1</t>
+  </si>
+  <si>
+    <t>BG-8</t>
+  </si>
+  <si>
+    <t>[[52.94125317, 43.41821977], [52.94117448, 43.41813292], [52.94117488, 43.41805135], [52.94151601, 43.41746448], [52.94164004, 43.41725109], [52.94192239, 43.41669678], [52.94204338, 43.41645925], [52.94219993, 43.41596218], [52.94219434, 43.41590266], [52.94211734, 43.41508154], [52.94204034, 43.41426042], [52.94196335, 43.4134393], [52.94188635, 43.41261818], [52.94188461, 43.41259962], [52.94191525, 43.4117955], [52.94194659, 43.41097278], [52.94197793, 43.41015006], [52.94199906, 43.40959539], [52.94195721, 43.40932898], [52.94182876, 43.40851129], [52.94170031, 43.4076936], [52.94160614, 43.40709411], [52.94157517, 43.40687564], [52.94153909, 43.40662116], [52.94155579, 43.40633387], [52.94160928, 43.40610274]]</t>
+  </si>
+  <si>
+    <t>MGU-69</t>
+  </si>
+  <si>
+    <t>[[52.97361844, 43.39158261], [52.97308078, 43.39156993], [52.97280322, 43.39158724], [52.97255374, 43.39162047], [52.97249532, 43.39161881], [52.97170359, 43.39159626], [52.97136768, 43.39158507], [52.97073198, 43.39156389], [52.97024201, 43.39152948], [52.96982151, 43.39149995], [52.96912321, 43.39142341], [52.96833378, 43.39133688], [52.9680143, 43.39127576], [52.96702618, 43.39108671], [52.96692059, 43.39107399], [52.96610019, 43.3909752], [52.96580443, 43.39095486], [52.96527214, 43.39091825], [52.96467823, 43.39092183], [52.96405054, 43.3909256], [52.96354973, 43.39093141], [52.96258809, 43.39094256], [52.96242127, 43.390943], [52.9612927, 43.39094595], [52.96016412, 43.39094889], [52.95903555, 43.39095182], [52.95834055, 43.39095361], [52.9581948, 43.39094047], [52.95793323, 43.39085485], [52.95776821, 43.39080083], [52.95757941, 43.39067541], [52.95741123, 43.39048828], [52.95738792, 43.39020765], [52.95734096, 43.38964211], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>PS-4</t>
+  </si>
+  <si>
+    <t>[[52.9562213, 43.41785138], [52.95598712, 43.41786438], [52.9551375, 43.4176611], [52.95500411, 43.41762918], [52.95449265, 43.41746692], [52.95411363, 43.41731753], [52.95405494, 43.41729439], [52.95330583, 43.41703718], [52.95309388, 43.4169644], [52.95278146, 43.41685712], [52.9523911, 43.41662078], [52.952173, 43.41649716], [52.95191321, 43.41634992], [52.95139599, 43.41600773], [52.951324, 43.41595557], [52.95078921, 43.41556806], [52.95051084, 43.4153849], [52.95032252, 43.415261], [52.94988109, 43.41497151], [52.94967572, 43.41483108], [52.94913628, 43.41446218], [52.94884703, 43.41427216], [52.94868223, 43.4141639], [52.94835361, 43.41392649], [52.94805789, 43.41368456], [52.94770697, 43.41339748], [52.94734514, 43.41304717], [52.94722278, 43.4129287], [52.94666519, 43.41239015], [52.94663671, 43.41236264], [52.94608824, 43.41181395], [52.94599707, 43.41172673], [52.94551511, 43.41126567], [52.94532571, 43.41106528], [52.94502951, 43.4107519], [52.94464308, 43.41041072], [52.94455943, 43.41033687], [52.94395193, 43.40976001], [52.94393553, 43.40974444], [52.94357939, 43.40941748], [52.94323642, 43.40912356], [52.94303357, 43.40894972], [52.94267657, 43.40859577], [52.94255773, 43.40846669], [52.94220336, 43.40808178], [52.94198507, 43.40775947], [52.94194423, 43.40769915], [52.94172755, 43.4070998], [52.94169734, 43.40696565], [52.94161246, 43.40658872], [52.94160957, 43.40614766], [52.94160928, 43.40610274]]</t>
+  </si>
+  <si>
+    <t>ГУ-76</t>
+  </si>
+  <si>
+    <t>UP_GU-76</t>
+  </si>
+  <si>
+    <t>[[53.00101972, 43.35872678], [53.00106474, 43.3588431], [53.00143878, 43.35886858], [53.00154239, 43.35888046], [53.00149724, 43.35901028], [53.0013639, 43.35916182], [53.00133797, 43.35919424], [53.00086658, 43.35978352], [53.00076334, 43.35990238], [53.00015951, 43.36059758], [52.99955568, 43.36129277], [52.99952523, 43.36132782], [52.99895627, 43.36199], [52.99875627, 43.36222277], [52.99837822, 43.36269666], [52.99810782, 43.36303561], [52.9979536, 43.36318683], [52.99767597, 43.36331991], [52.99765446, 43.36333023], [52.99724764, 43.36346746], [52.99692564, 43.36360054], [52.99673777, 43.36375599], [52.99648649, 43.3639639], [52.9959019, 43.36430454], [52.99502044, 43.36481817], [52.99495617, 43.36485562], [52.9943828, 43.36549376], [52.99420706, 43.36568935], [52.99395829, 43.36624988], [52.99395151, 43.36626517], [52.9939388, 43.36654304], [52.99399544, 43.3669029], [52.994058, 43.36706325], [52.99436687, 43.36785485], [52.99449616, 43.36818618], [52.99464499, 43.36865225], [52.99490096, 43.36945382], [52.99499585, 43.36975098], [52.99528656, 43.3702235], [52.99574855, 43.37097437], [52.99621054, 43.37172524], [52.9964763, 43.37215717], [52.99658899, 43.37249697], [52.99685429, 43.37329693], [52.99702348, 43.37380707], [52.99713635, 43.37409367], [52.99734445, 43.37462208], [52.99746189, 43.37488156], [52.99756838, 43.37511685], [52.99783079, 43.37546576], [52.99798272, 43.37560414], [52.99800985, 43.37562886]]</t>
+  </si>
+  <si>
+    <t>ГУ-73</t>
+  </si>
+  <si>
+    <t>UP_GU-73</t>
+  </si>
+  <si>
+    <t>[[53.00013098, 43.40143378], [53.00021261, 43.40141652], [53.00024883, 43.40065591], [53.00025344, 43.40055914], [53.00014557, 43.40013347], [52.99990533, 43.39989819], [52.99923128, 43.39923802], [52.99920784, 43.39921506], [52.99838932, 43.39869652], [52.99838542, 43.39869402], [52.99753858, 43.39814989], [52.99711755, 43.39787935], [52.9967455, 43.39756683], [52.99600561, 43.3969453], [52.99526572, 43.39632377], [52.99456918, 43.39573863], [52.99454505, 43.39569375], [52.99413296, 43.39492753], [52.99372089, 43.39416131], [52.99330882, 43.39339509], [52.99289677, 43.39262886], [52.99248473, 43.39186264], [52.99244036, 43.39178014], [52.99209889, 43.39108922], [52.99171622, 43.39031494], [52.99133356, 43.38954066], [52.99095091, 43.38876637], [52.99056827, 43.38799208], [52.99018564, 43.38721779], [52.98980302, 43.3864435], [52.98942041, 43.38566921], [52.98903781, 43.38489492], [52.98865522, 43.38412062], [52.98841783, 43.38364019], [52.98824181, 43.38335543], [52.987778, 43.38260513], [52.98731421, 43.38185482], [52.98693436, 43.38124028], [52.98685493, 43.38110307], [52.98641604, 43.38034484], [52.98616588, 43.37991265]]</t>
+  </si>
+  <si>
+    <t>ГУ-62</t>
+  </si>
+  <si>
+    <t>[[52.92757636, 43.3708812], [52.9273939, 43.37092157], [52.9273202, 43.37093787], [52.92736093, 43.37112317], [52.92758625, 43.37167856], [52.9275893, 43.37168608], [52.92782805, 43.37224182], [52.9279194, 43.37246488], [52.92810065, 43.37290748], [52.92826384, 43.37324841], [52.92843779, 43.37361182], [52.92862664, 43.37402771], [52.92879222, 43.37439237], [52.9289751, 43.37481051], [52.92908696, 43.37506627], [52.92931638, 43.37552277], [52.92934777, 43.37558719], [52.92964189, 43.37619086], [52.92972397, 43.37636313], [52.93005111, 43.37704977], [52.93009516, 43.37714036], [52.93041774, 43.3778038], [52.93047528, 43.37791527], [52.93078286, 43.37851114], [52.93086759, 43.37868693], [52.93118306, 43.37934134], [52.93123905, 43.37946407], [52.93149427, 43.38002351], [52.93161268, 43.38024039], [52.9317642, 43.38051791], [52.9320462, 43.38099643], [52.93204752, 43.38099976], [52.93222644, 43.38145394], [52.93230375, 43.38179986], [52.93233146, 43.38192387], [52.93250277, 43.38255406], [52.93251905, 43.3826077], [52.93266411, 43.38308567], [52.93273379, 43.38341527], [52.93276032, 43.38354074], [52.93285018, 43.38389798], [52.93298123, 43.38421685], [52.93304214, 43.38436508], [52.93320366, 43.38493167], [52.93322586, 43.38501979], [52.93335409, 43.3855287], [52.93341628, 43.38583092], [52.93345662, 43.38602702], [52.93362471, 43.38663962], [52.93369492, 43.38689553], [52.93376635, 43.38742106], [52.93377359, 43.3874546], [52.93388978, 43.38799251], [52.93398464, 43.38826228], [52.93414239, 43.38871092], [52.93429549, 43.38905304], [52.93443546, 43.38936581], [52.93466343, 43.38983103], [52.93477824, 43.39006532], [52.93506311, 43.3905808], [52.9350753, 43.39059699], [52.93517637, 43.39073127], [52.93548428, 43.39118862], [52.93560326, 43.39132347], [52.93583666, 43.39158801], [52.93628335, 43.39197844], [52.93635856, 43.39204418], [52.93670891, 43.39235007], [52.93701303, 43.39260628], [52.9373739, 43.39291031], [52.9376935, 43.39315702], [52.93776872, 43.39321735], [52.93803039, 43.39342725], [52.93850404, 43.39368676], [52.93861593, 43.39375651], [52.93920672, 43.39412479], [52.93948738, 43.394279], [52.9398375, 43.39447136], [52.94038266, 43.39478013], [52.94049131, 43.39484166], [52.94083572, 43.3950527], [52.9410998, 43.39499345], [52.94125278, 43.39515118]]</t>
+  </si>
+  <si>
+    <t>MGU-92</t>
+  </si>
+  <si>
+    <t>[[52.97769617, 43.4156657], [52.97769066, 43.41567278], [52.97766848, 43.41568501], [52.97733906, 43.41583104], [52.97717497, 43.41590378], [52.97705839, 43.41595173], [52.9766987, 43.4156335], [52.97658792, 43.41548036], [52.9760613, 43.41475234], [52.97555815, 43.41405673], [52.9755382, 43.41402309], [52.9750902, 43.41326763], [52.97497042, 43.41306564], [52.97468101, 43.41250077], [52.97428598, 43.41172976], [52.97421875, 43.41159854], [52.97400876, 43.41093296], [52.97397166, 43.41081538], [52.97390227, 43.41066742], [52.97384263, 43.41055707], [52.97373988, 43.4103014], [52.9736444, 43.41015623], [52.97329159, 43.40961977], [52.97314064, 43.40941997], [52.97259598, 43.40869906], [52.97230423, 43.40831288], [52.97204849, 43.40797929], [52.97184628, 43.40771552], [52.97152949, 43.40724867], [52.97102893, 43.40651097], [52.97076148, 43.4061168], [52.97055946, 43.40576295], [52.97038761, 43.40546193], [52.9700727, 43.40502117], [52.96980604, 43.40464793], [52.96954431, 43.40429388], [52.96900875, 43.40356938], [52.96847695, 43.40284993], [52.96847338, 43.4028448], [52.96796377, 43.40211041], [52.96794751, 43.40208698], [52.96746725, 43.40137127], [52.96732025, 43.40115221], [52.96698125, 43.40062845], [52.96653221, 43.39993465], [52.96649667, 43.39988516], [52.96597306, 43.39915604], [52.96544945, 43.39842691], [52.96492587, 43.39769779], [52.96483265, 43.39756798], [52.96429001, 43.39701925], [52.96406586, 43.39679258], [52.96361714, 43.39635851], [52.96348558, 43.39623125], [52.96293369, 43.39570352], [52.96241787, 43.39521027], [52.96223354, 43.39505851], [52.96177135, 43.39467795], [52.96153284, 43.3944157], [52.96090904, 43.39372979], [52.9608798, 43.39369765], [52.96023489, 43.39306978], [52.96007297, 43.39291214], [52.9596192, 43.39238066], [52.95941903, 43.39214621], [52.95899217, 43.3916966], [52.95869984, 43.39138868], [52.95840174, 43.39099636], [52.95814692, 43.39066098], [52.95804717, 43.39055299], [52.95783938, 43.39028323], [52.95772693, 43.39013724], [52.95730181, 43.38966083], [52.95719306, 43.38962461]]</t>
+  </si>
+  <si>
+    <t>[[52.94160928, 43.40610274], [52.94170739, 43.40569605], [52.94174358, 43.4052868], [52.94177993, 43.40487577], [52.94181894, 43.4044656], [52.9418631, 43.4040013], [52.94188049, 43.4036439], [52.9419078, 43.40308248], [52.94198803, 43.40282785], [52.94223282, 43.4020509], [52.94223091, 43.40202509], [52.9421701, 43.40120324], [52.94216764, 43.40116995], [52.94213489, 43.40053146], [52.9421327, 43.40038071], [52.94212452, 43.39982059], [52.94210665, 43.39955803], [52.94210127, 43.39947897], [52.94209667, 43.39933504], [52.94209866, 43.39901098], [52.94211207, 43.3987353], [52.94212101, 43.39855157], [52.94210807, 43.39814677], [52.94208568, 43.39791306], [52.94207104, 43.39776037], [52.9418653, 43.39711582], [52.94186156, 43.39710809], [52.94162744, 43.39662483], [52.94153423, 43.39632185], [52.94150349, 43.39622191], [52.94142229, 43.39599828], [52.94132714, 43.39551394], [52.94126016, 43.39517298], [52.94125278, 43.39515118]]</t>
+  </si>
+  <si>
+    <t>ГУ-8</t>
+  </si>
+  <si>
+    <t>[[52.94217151, 43.40633955], [52.94213695, 43.40629915], [52.94209907, 43.40625023], [52.94160928, 43.40610274]]</t>
+  </si>
+  <si>
+    <t>Uzel_K-13</t>
+  </si>
+  <si>
+    <t>[[52.97714273, 43.3828068], [52.97709398, 43.38273212]]</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>[[52.94125278, 43.39515118], [52.9411778, 43.39517447], [52.94114755, 43.39512967], [52.94023905, 43.39539507], [52.93959715, 43.39558257], [52.93963559, 43.39564851], [52.93931939, 43.3957375], [52.93826641, 43.39603382], [52.93721341, 43.39633013], [52.93616041, 43.39662643], [52.93510739, 43.39692272], [52.93488972, 43.39698396], [52.93493892, 43.3970793], [52.93423013, 43.39727039], [52.93317147, 43.3975558], [52.9321128, 43.3978412], [52.93105411, 43.39812659], [52.92999542, 43.39841197], [52.92959572, 43.39851971], [52.92950343, 43.39835708], [52.92945491, 43.3982703], [52.92952943, 43.39824915]]</t>
+  </si>
+  <si>
+    <t>[[52.95719306, 43.38962461], [52.95746368, 43.38952573], [52.95758668, 43.38970346], [52.9570922, 43.38988385], [52.9561494, 43.39022777], [52.95608266, 43.39025174], [52.95507012, 43.39061523], [52.95447164, 43.39083008], [52.95405671, 43.39097744], [52.95304205, 43.3913378], [52.95281365, 43.39141891], [52.95237956, 43.3915764], [52.95203099, 43.3917035], [52.95180499, 43.3917859], [52.95172921, 43.39167955], [52.9514522, 43.3917764], [52.95151385, 43.3918903], [52.9512996, 43.39196329], [52.95027707, 43.39231164], [52.95014031, 43.39235823], [52.94999281, 43.39241353]]</t>
+  </si>
+  <si>
+    <t>[[52.94999281, 43.39241353], [52.94896672, 43.39275628], [52.94794061, 43.39309901], [52.94691449, 43.39344174], [52.94588836, 43.39378445], [52.94579764, 43.39381475], [52.94573761, 43.39371006], [52.94540145, 43.39381475], [52.94547349, 43.39392817], [52.94516221, 43.39402102], [52.94433293, 43.3942684], [52.94411419, 43.3943262], [52.94305305, 43.39460659], [52.94288021, 43.39465226], [52.9419868, 43.39487642], [52.94111185, 43.39509595], [52.94092297, 43.3951509], [52.93987467, 43.39545591], [52.93893489, 43.39572933], [52.93882597, 43.39576019], [52.93777391, 43.39605824], [52.93672183, 43.39635629], [52.93566975, 43.39665432], [52.93539006, 43.39673355], [52.93460858, 43.39693448], [52.93354412, 43.39720817], [52.93247964, 43.39748184], [52.93234878, 43.39751549], [52.93142336, 43.39777184], [52.93036822, 43.39806411], [52.92997222, 43.3981738], [52.9295538, 43.39829102], [52.92952943, 43.39824915]]</t>
+  </si>
+  <si>
+    <t>[[52.99004843, 43.37865302], [52.98901884, 43.37898977], [52.98889401, 43.3790306], [52.9879874, 43.3793235], [52.98695569, 43.37965679], [52.98667478, 43.37974754], [52.98616588, 43.37991265]]</t>
+  </si>
+  <si>
+    <t>[[52.98616588, 43.37991265], [52.9851373, 43.38025107], [52.98410871, 43.38058948], [52.98308011, 43.38092788], [52.9820515, 43.38126627], [52.98102288, 43.38160465], [52.98068296, 43.38171647], [52.97999316, 43.38194126], [52.97896289, 43.382277], [52.97841558, 43.38245534], [52.9779309, 43.3826099], [52.97745072, 43.38276301], [52.977385, 43.38268553], [52.97709398, 43.38273212]]</t>
+  </si>
+  <si>
+    <t>Uzel_K-5</t>
+  </si>
+  <si>
+    <t>[[52.99800985, 43.37562886], [52.99756137, 43.3758149]]</t>
+  </si>
+  <si>
+    <t>[[52.97714273, 43.3828068], [52.97611795, 43.38315138], [52.97565932, 43.38330559]]</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>[[52.95776427, 43.38965696], [52.95675414, 43.39002399], [52.955744, 43.39039101], [52.95473384, 43.39075802], [52.95446722, 43.39085488]]</t>
+  </si>
+  <si>
+    <t>[[53.00183569, 43.37404176], [53.00095221, 43.37440828], [52.99997144, 43.37481515], [52.99899065, 43.37522201], [52.99800985, 43.37562886]]</t>
+  </si>
+  <si>
+    <t>[[53.03532126, 43.36558127], [53.03499239, 43.36561993], [53.03431995, 43.36561993], [53.03419838, 43.36560858], [53.03342609, 43.36553646], [53.03307857, 43.36550925], [53.03289306, 43.36549473], [53.03258144, 43.3655305], [53.03197796, 43.36565212], [53.03089056, 43.36587125], [53.02980316, 43.36609038], [53.02871575, 43.36630949], [53.02769845, 43.36651446]]</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>[[53.00861556, 43.37078848], [53.00762467, 43.371182], [53.00747689, 43.37124069], [53.00673956, 43.37168912], [53.00651659, 43.37182472], [53.00589679, 43.37221964], [53.00588529, 43.37222668], [53.00504307, 43.37274226], [53.00501866, 43.37275335], [53.00429468, 43.373082], [53.00405173, 43.37317682], [53.00305693, 43.37356511], [53.00206211, 43.37395339], [53.00183569, 43.37404176]]</t>
+  </si>
+  <si>
+    <t>[[53.01771345, 43.36845855], [53.0166314, 43.36869146], [53.01554934, 43.36892436], [53.01533092, 43.36897137], [53.01449011, 43.36920646], [53.01419782, 43.36928818], [53.01345474, 43.36953268], [53.01281777, 43.36974227], [53.01242869, 43.36987485], [53.01188805, 43.37005907], [53.01137251, 43.37015331], [53.01027814, 43.37035336], [53.00940396, 43.37051315], [53.00919683, 43.3705809], [53.00902393, 43.37063746], [53.00861556, 43.37078848]]</t>
+  </si>
+  <si>
+    <t>[[53.02769845, 43.36651446], [53.02661005, 43.36673097], [53.02552164, 43.36694746], [53.02487048, 43.36707697], [53.02443733, 43.36717426], [53.02365002, 43.36735108], [53.02335336, 43.36740074], [53.02225378, 43.3675848], [53.02214181, 43.36760354], [53.02115815, 43.36778093], [53.02086182, 43.36783436], [53.02007494, 43.36801006], [53.01947268, 43.36814453], [53.01898802, 43.36822909], [53.01848044, 43.36831765], [53.01789253, 43.36842565], [53.01771345, 43.36845855]]</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>[[52.97565932, 43.38330559], [52.97463825, 43.38365598], [52.97412223, 43.38383305], [52.97361496, 43.3840029], [52.97258941, 43.38434629], [52.97196603, 43.38455501], [52.97155841, 43.38468065], [52.97051894, 43.38500103], [52.96947947, 43.38532139], [52.9691914, 43.38541017], [52.96844881, 43.38565643], [52.96769514, 43.38590636], [52.96742398, 43.38600093], [52.9664059, 43.38635599], [52.96538781, 43.38671104], [52.96520681, 43.38677416], [52.96438581, 43.38708948], [52.96338728, 43.38747296], [52.96238873, 43.38785643], [52.96172508, 43.38811129], [52.96139353, 43.38824444], [52.96040496, 43.38864144], [52.95941638, 43.38903842], [52.95850407, 43.38940477], [52.95842518, 43.38943166], [52.95776427, 43.38965696]]</t>
+  </si>
+  <si>
+    <t>[[52.99756137, 43.3758149], [52.99655428, 43.37618602], [52.99622293, 43.37630813], [52.9955453, 43.3765544], [52.99458575, 43.37690313], [52.99453627, 43.37692267], [52.9935441, 43.37731461], [52.99307954, 43.37749812], [52.99254677, 43.37769946], [52.99154491, 43.37807808], [52.99125792, 43.37818654], [52.9905234, 43.37842703], [52.98949399, 43.37876405], [52.98846456, 43.37910107], [52.98743513, 43.37943808], [52.98640568, 43.37977508], [52.98537622, 43.38011207], [52.98434675, 43.38044905], [52.98331727, 43.38078602], [52.98228778, 43.38112298], [52.98125828, 43.38145993], [52.98022876, 43.38179688], [52.97919924, 43.38213381], [52.9781697, 43.38247074], [52.97714273, 43.3828068]]</t>
+  </si>
+  <si>
+    <t>[[52.95446722, 43.39085488], [52.9544233, 43.3908728], [52.95416006, 43.39096346], [52.95345241, 43.39121484], [52.95283178, 43.39143531], [52.95243874, 43.39157668], [52.95238857, 43.39159473], [52.95179127, 43.39180981], [52.95172153, 43.39170456], [52.95149944, 43.39178206], [52.95148415, 43.3917874], [52.95154718, 43.39189557], [52.95068728, 43.39219087], [52.95015232, 43.39237457], [52.94966381, 43.39253774], [52.94863771, 43.39288047], [52.94761159, 43.39322319], [52.94658546, 43.3935659], [52.94578419, 43.39383351], [52.94572333, 43.39373293], [52.94563454, 43.39376062], [52.94543902, 43.39382161], [52.94550607, 43.39393173], [52.94481253, 43.39414134], [52.94433939, 43.39428434], [52.94376001, 43.39443794], [52.94288959, 43.39466869], [52.9426983, 43.39471712], [52.94163209, 43.3949871], [52.94113242, 43.39511361], [52.94057476, 43.39527452], [52.94048306, 43.39530098], [52.9395261, 43.39557886], [52.93894877, 43.3957465], [52.93847645, 43.3958814], [52.93742551, 43.39618155], [52.93637456, 43.3964817], [52.93539052, 43.39676273], [52.93532276, 43.3967802], [52.93425863, 43.39705457], [52.93319449, 43.39732894], [52.93236644, 43.39754242], [52.93213227, 43.39760712], [52.9310768, 43.39789876], [52.93002131, 43.39819038], [52.92998291, 43.39820099], [52.92952368, 43.39832597], [52.92949523, 43.39828192], [52.92952943, 43.39824915]]</t>
+  </si>
+  <si>
+    <t>J_UPSV-1</t>
+  </si>
+  <si>
+    <t>[[52.92952943, 43.39824915], [52.92950541, 43.39820312], [52.92899001, 43.39834248], [52.92853504, 43.39817206], [52.92753105, 43.39779599], [52.92652707, 43.39741991], [52.9255231, 43.39704382], [52.92470973, 43.39673912], [52.92466725, 43.39679053], [52.92454828, 43.39674891], [52.92446597, 43.39672011], [52.92450324, 43.3966551], [52.92367121, 43.39633495], [52.92267299, 43.39595084], [52.9217641, 43.39560108], [52.92166498, 43.39558697], [52.92055723, 43.39542926], [52.91944949, 43.39527154], [52.91882706, 43.39518291], [52.91879729, 43.39529106], [52.91846014, 43.39524424], [52.91735141, 43.39509026], [52.91624269, 43.39493626], [52.91513397, 43.39478226], [52.91402525, 43.39462825], [52.91396274, 43.39461956], [52.91293559, 43.39441432], [52.91204179, 43.39423571], [52.91201778, 43.39429678], [52.91190664, 43.39427589], [52.9108137, 43.39407051], [52.90972078, 43.39386512], [52.90923241, 43.39377334], [52.90861987, 43.39368535], [52.90751252, 43.39352629], [52.9071674, 43.39347672], [52.90639572, 43.39341125], [52.90527466, 43.39331614], [52.90480224, 43.39327606], [52.90464624, 43.39373848], [52.90437661, 43.39453769], [52.90426694, 43.39486278], [52.90384672, 43.3952429], [52.90348395, 43.39557105], [52.90389993, 43.39583415], [52.90392594, 43.3958506]]</t>
+  </si>
+  <si>
+    <t>[[52.92952943, 43.39824915], [52.92953786, 43.39817214], [52.92899203, 43.39832415], [52.92860579, 43.39817279], [52.92761156, 43.39778316], [52.92661735, 43.39739353], [52.92562316, 43.39700389], [52.92462897, 43.39661424], [52.9236348, 43.39622458], [52.92330565, 43.39609557], [52.92333276, 43.39605125], [52.92317688, 43.39598723], [52.923143, 43.39602662], [52.92275395, 43.39586794], [52.92232228, 43.39569187], [52.92227261, 43.39575924], [52.92180894, 43.39557329], [52.92177575, 43.39555998], [52.92070581, 43.39540522], [52.91959872, 43.39524507], [52.91878513, 43.39512737], [52.91875034, 43.3952411], [52.91861341, 43.39522202], [52.91750482, 43.3950675], [52.91639623, 43.39491297], [52.91528765, 43.39475843], [52.91515048, 43.3947393], [52.91518769, 43.39459009], [52.91503909, 43.39456534], [52.91499797, 43.39472105], [52.91459387, 43.39466581], [52.91397141, 43.39458071], [52.91349315, 43.39448667], [52.91240342, 43.39427241], [52.91201435, 43.3941959], [52.91198795, 43.39426169], [52.91137683, 43.39414514], [52.91028492, 43.39393688], [52.90924226, 43.393738], [52.90919236, 43.3937307], [52.9080858, 43.3935687], [52.90719162, 43.39343779], [52.90721109, 43.39334779], [52.90712136, 43.39333416], [52.90710112, 43.39333108], [52.90708024, 43.39342225], [52.90610519, 43.39334226], [52.90498364, 43.39325024], [52.90476604, 43.39323239], [52.90455038, 43.39387683], [52.90428279, 43.39467641], [52.90422613, 43.39484571], [52.90366883, 43.39535142], [52.90342009, 43.39557713], [52.90381474, 43.3958211], [52.90392594, 43.3958506]]</t>
+  </si>
+  <si>
+    <t>U-GU-91</t>
+  </si>
+  <si>
+    <t>U-GU-91-U-GU-89</t>
+  </si>
+  <si>
+    <t>[[52.84943957, 43.42448156], [52.84968544, 43.42447677]]</t>
+  </si>
+  <si>
+    <t>U-GU-89</t>
+  </si>
+  <si>
+    <t>U-GU-90</t>
+  </si>
+  <si>
+    <t>[[52.84968544, 43.42447677], [52.85079221, 43.42431355], [52.85189898, 43.42415032], [52.85290718, 43.42400162], [52.8530033, 43.42398008], [52.8540826, 43.42373814], [52.8551619, 43.4234962], [52.85624119, 43.42325425], [52.85699372, 43.42308554], [52.85733181, 43.42304865], [52.85762864, 43.42301626], [52.85830398, 43.42271972], [52.85834191, 43.42270913], [52.85939636, 43.42241472], [52.85975015, 43.42231593]]</t>
+  </si>
+  <si>
+    <t>U-GU-88</t>
+  </si>
+  <si>
+    <t>[[52.85975015, 43.42231593], [52.86080459, 43.42202151], [52.86185902, 43.42172707], [52.86231217, 43.42160053], [52.86290504, 43.42141745], [52.86394472, 43.42109638], [52.86476484, 43.4208431], [52.86498129, 43.42077019], [52.86600628, 43.42042496], [52.86703126, 43.42007971], [52.86770383, 43.41985316], [52.86805728, 43.41973612], [52.8690853, 43.41939572], [52.8701133, 43.41905531], [52.87114129, 43.41871489], [52.87184819, 43.4184808]]</t>
+  </si>
+  <si>
+    <t>U-GU-87</t>
+  </si>
+  <si>
+    <t>[[52.87184819, 43.4184808], [52.87287616, 43.41814036], [52.8738356, 43.41782261], [52.87390469, 43.41780085], [52.87494113, 43.41747437], [52.87597756, 43.41714787], [52.87604683, 43.41712605]]</t>
+  </si>
+  <si>
+    <t>K-2</t>
+  </si>
+  <si>
+    <t>[[52.87604683, 43.41712605], [52.87694898, 43.41684185], [52.87708608, 43.41680468], [52.87814431, 43.41651776], [52.87920253, 43.41623083], [52.88026074, 43.41594389], [52.88131894, 43.41565694], [52.88132831, 43.4156544], [52.88234787, 43.41531817], [52.88337037, 43.41498097], [52.88337644, 43.4149788], [52.88439057, 43.41461706], [52.88540469, 43.41425531], [52.8855138, 43.41421638], [52.88642291, 43.41389976], [52.88744161, 43.41354495], [52.88748925, 43.41352836]]</t>
+  </si>
+  <si>
+    <t>K-2-BG</t>
+  </si>
+  <si>
+    <t>UPSV-1</t>
+  </si>
+  <si>
+    <t>[[52.88748925, 43.41352836], [52.88851488, 43.41318432], [52.8895405, 43.41284028], [52.8905661, 43.41249622], [52.8915917, 43.41215216], [52.89261728, 43.41180808], [52.89320041, 43.41161244], [52.89364142, 43.41146175], [52.89466366, 43.41111246], [52.8956859, 43.41076316], [52.89670812, 43.41041384], [52.89773033, 43.41006452], [52.89875253, 43.40971519], [52.89977471, 43.40936585], [52.90079689, 43.4090165], [52.90181905, 43.40866714], [52.90262328, 43.40839226], [52.90284813, 43.40832966], [52.90321407, 43.40822778], [52.90388186, 43.40800013], [52.90490447, 43.4076515], [52.90592707, 43.40730286], [52.90694966, 43.40695421], [52.90797224, 43.40660555], [52.90846872, 43.40643627], [52.90868587, 43.40604354], [52.90910793, 43.4052802], [52.909188, 43.40513538]]</t>
+  </si>
+  <si>
+    <t>[[52.90981002, 43.40578375], [52.909188, 43.40513538]]</t>
+  </si>
+  <si>
+    <t>U-GU-54</t>
+  </si>
+  <si>
+    <t>K-11</t>
+  </si>
+  <si>
+    <t>[[52.91381243, 43.40441218], [52.91279082, 43.40476229], [52.9117692, 43.40511239], [52.91074757, 43.40546248], [52.90981002, 43.40578375]]</t>
+  </si>
+  <si>
+    <t>U-GU-84</t>
+  </si>
+  <si>
+    <t>U-GU-83</t>
+  </si>
+  <si>
+    <t>[[52.894581, 43.41085833], [52.89465811, 43.41082745]]</t>
+  </si>
+  <si>
+    <t>[[52.89465811, 43.41082745], [52.89489969, 43.41073432], [52.89521285, 43.41062215], [52.89563911, 43.41046947], [52.89623405, 43.41027146], [52.89726102, 43.40992964], [52.89731278, 43.40991241], [52.89832788, 43.4096611], [52.89849894, 43.40961875], [52.89931588, 43.40926773], [52.89982955, 43.40904701], [52.90029934, 43.40886397], [52.90074392, 43.40869075], [52.90119855, 43.40852192], [52.90130612, 43.40849308], [52.90173625, 43.40837773], [52.90232356, 43.40814175], [52.90252399, 43.40806121], [52.90293379, 43.40787524], [52.90310823, 43.40807909], [52.9031852, 43.40804832], [52.90392771, 43.40775148], [52.90417673, 43.40765487], [52.90517327, 43.40726819], [52.90523809, 43.40724304], [52.90507058, 43.40695687], [52.90559866, 43.40670815], [52.90641419, 43.40632404], [52.90655511, 43.40627199], [52.90756208, 43.40589999], [52.90760817, 43.40588297], [52.90868331, 43.40583452], [52.90981002, 43.40578375]]</t>
+  </si>
+  <si>
+    <t>K-8-BG</t>
+  </si>
+  <si>
+    <t>[[52.92377927, 43.40083201], [52.92349029, 43.40041223], [52.92333233, 43.40047005], [52.9224985, 43.40077522], [52.92232784, 43.40084519], [52.92167557, 43.40111261], [52.9213404, 43.40124388], [52.92067057, 43.4015062], [52.92035127, 43.40164025], [52.91943183, 43.40202621], [52.91937285, 43.40205067], [52.91850261, 43.40241158], [52.9183964, 43.40246318], [52.91777835, 43.40276346], [52.91743739, 43.40289556], [52.91719572, 43.40298918], [52.91642445, 43.40325847], [52.91540635, 43.40361394], [52.91438823, 43.40396939], [52.9133701, 43.40432484], [52.91235196, 43.40468027], [52.91133381, 43.4050357], [52.91052176, 43.40531917], [52.91029721, 43.40528823], [52.909188, 43.40513538]]</t>
+  </si>
+  <si>
+    <t>U-GU-4</t>
+  </si>
+  <si>
+    <t>[[52.89437093, 43.41094007], [52.894581, 43.41085833]]</t>
+  </si>
+  <si>
+    <t>[[52.88750013, 43.41119888], [52.88781053, 43.4119902], [52.88807322, 43.41265988], [52.88823109, 43.41260733], [52.88925808, 43.41226549], [52.89028506, 43.41192364], [52.89131203, 43.41158177], [52.89233899, 43.4112399], [52.89336593, 43.41089802], [52.89416361, 43.41063245], [52.89427475, 43.41079736], [52.89437093, 43.41094007]]</t>
+  </si>
+  <si>
+    <t>K-8</t>
+  </si>
+  <si>
+    <t>[[52.915061, 43.41299822], [52.91520965, 43.4129763], [52.91576191, 43.41290441], [52.91574638, 43.41260112], [52.91570425, 43.41177865], [52.91568304, 43.41136441], [52.91559899, 43.41096053], [52.91549165, 43.41044471], [52.91543444, 43.41014629], [52.91527816, 43.40933118], [52.91526464, 43.40926068], [52.91503843, 43.40864757], [52.9150025, 43.40853359], [52.91474966, 43.40773146], [52.91467578, 43.40749708], [52.91453408, 43.40692377], [52.91434834, 43.40617222], [52.91433918, 43.40611321], [52.91421229, 43.40529539], [52.91410457, 43.40460111], [52.91425931, 43.40454887], [52.91528365, 43.40420303], [52.91630798, 43.40385718], [52.91725081, 43.40353884], [52.91733194, 43.40351078], [52.91835184, 43.40315807], [52.91878332, 43.40300885], [52.91937432, 43.40280938], [52.92033709, 43.40248441], [52.92039896, 43.40246406], [52.92142792, 43.40212566], [52.92163005, 43.40205919], [52.92245341, 43.40178171], [52.92332166, 43.4014891], [52.92347817, 43.40143662], [52.92409152, 43.40123096], [52.92386665, 43.40094366], [52.92377927, 43.40083201]]</t>
+  </si>
+  <si>
+    <t>[[52.92201319, 43.39751956], [52.92202689, 43.39754268], [52.92205584, 43.39761344], [52.92215512, 43.3975938], [52.92217391, 43.39762871], [52.92219778, 43.39767025], [52.92242685, 43.3978223], [52.92248391, 43.39785714], [52.9225593, 43.39795627], [52.92267956, 43.39811438], [52.92281333, 43.39840535], [52.92290925, 43.39855972], [52.92300374, 43.39871061], [52.92303007, 43.39875266], [52.9231462, 43.39893944], [52.92326531, 43.39913003], [52.92339002, 43.39932975], [52.9234707, 43.39945991], [52.92351091, 43.39952478], [52.92363821, 43.39972893], [52.92374611, 43.39990066], [52.92386014, 43.40007229], [52.92394853, 43.40020551], [52.9239746, 43.4002448], [52.92407494, 43.40039671], [52.92417024, 43.40053784], [52.92420552, 43.4005947], [52.92420312, 43.40059623], [52.92418026, 43.40060911], [52.92397324, 43.40072423], [52.92383053, 43.4008048], [52.92377927, 43.40083201]]</t>
+  </si>
+  <si>
+    <t>U-GU-13&amp;GU-93</t>
+  </si>
+  <si>
+    <t>[[52.91033071, 43.38769664], [52.9103907, 43.38779921]]</t>
+  </si>
+  <si>
+    <t>[[52.9103907, 43.38779921], [52.91081225, 43.38856267], [52.91123382, 43.38932614], [52.91127567, 43.38940193], [52.91131003, 43.38945391], [52.91178753, 43.39004219], [52.91236243, 43.39075044], [52.91293734, 43.39145868], [52.91351227, 43.39216693], [52.91403054, 43.39280537], [52.91410359, 43.39286654], [52.91456852, 43.39325592], [52.91484446, 43.39348742], [52.91558489, 43.39410859], [52.91574171, 43.39424016], [52.91634153, 43.39471924], [52.9166569, 43.39497113], [52.91692261, 43.3951237], [52.91712499, 43.39530701], [52.91783278, 43.3959481], [52.91854059, 43.39658919], [52.91924842, 43.39723028], [52.91949612, 43.39745462], [52.919976, 43.39785934], [52.92071424, 43.39848193], [52.92091955, 43.39865508], [52.92130941, 43.3990145], [52.92142566, 43.39912071], [52.92188812, 43.39954327], [52.92217423, 43.39973364], [52.92300802, 43.4002884], [52.92345039, 43.40058273], [52.92377927, 43.40083201]]</t>
+  </si>
+  <si>
+    <t>[[52.92070653, 43.42525948], [52.92061951, 43.42526529], [52.92057747, 43.42527104], [52.92027727, 43.42526979], [52.92014825, 43.42526813], [52.920131, 43.42485301], [52.92011916, 43.42456779], [52.92003243, 43.42413937], [52.92000167, 43.42403717], [52.91989433, 43.42368047], [52.91970128, 43.42324478], [52.91935425, 43.42246157], [52.91900723, 43.42167837], [52.91866022, 43.42089516], [52.9183214, 43.42013042], [52.91831355, 43.42011188], [52.91798054, 43.41932545], [52.91787074, 43.41906614], [52.91768565, 43.41853124], [52.91748532, 43.41795228], [52.9174319, 43.41772972], [52.91731679, 43.41725015], [52.91725282, 43.41691722], [52.91719583, 43.41662058], [52.91719616, 43.41662054], [52.91708386, 43.41610373], [52.91690723, 43.41529083], [52.9167306, 43.41447793], [52.91657409, 43.4137576], [52.91655133, 43.41366535], [52.91635146, 43.41285531], [52.9161516, 43.41204528], [52.91604569, 43.41161599], [52.91596465, 43.41132875], [52.91593131, 43.41123835], [52.91591054, 43.41118207], [52.91573012, 43.41042871], [52.91567742, 43.41020868], [52.91549761, 43.40962351], [52.91548694, 43.40958876], [52.91520673, 43.40882829], [52.91491386, 43.40803343], [52.91487204, 43.40791994], [52.91470951, 43.40730328], [52.91468943, 43.4072271], [52.91447641, 43.40641884], [52.91438669, 43.40607841], [52.91428443, 43.4056079], [52.91424466, 43.40542488], [52.91407978, 43.40490292], [52.91402808, 43.40480803], [52.91381243, 43.40441218]]</t>
+  </si>
+  <si>
+    <t>[[52.90739596, 43.40060949], [52.90738678, 43.40042009], [52.9075521, 43.40036002], [52.9076949, 43.40030814], [52.90792989, 43.40026357], [52.90810162, 43.40042647], [52.90821699, 43.40053589], [52.90890907, 43.40060601], [52.90913215, 43.400672], [52.90946231, 43.40076967], [52.90997614, 43.40119023], [52.90999214, 43.40120333], [52.9107189, 43.40180998], [52.91146151, 43.40242983], [52.91220412, 43.40304968], [52.91294676, 43.40366952], [52.91355984, 43.40418122], [52.91374478, 43.40413187], [52.91480485, 43.40384902], [52.91586491, 43.40356616], [52.91613147, 43.40349503], [52.91690576, 43.40324839], [52.91794016, 43.40291889], [52.91854583, 43.40272594], [52.91895649, 43.40256253], [52.91964299, 43.40228934], [52.91994732, 43.40216823], [52.9205161, 43.40194189], [52.92093813, 43.40177393], [52.92178164, 43.40143824], [52.92193623, 43.40139065], [52.92272475, 43.40114789], [52.92297713, 43.40107229], [52.92377927, 43.40083201]]</t>
+  </si>
+  <si>
+    <t>[[52.92588396, 43.40668355], [52.92594803, 43.40661479], [52.92572562, 43.40589286], [52.92547824, 43.40508983], [52.92523086, 43.4042868], [52.92498348, 43.40348377], [52.92473611, 43.40268074], [52.92453186, 43.40201767], [52.92446727, 43.40188217], [52.92410455, 43.40112125], [52.92408936, 43.40110774], [52.92377927, 43.40083201]]</t>
+  </si>
+  <si>
+    <t>[[52.90153498, 43.42411886], [52.90164791, 43.42408881], [52.90162216, 43.42407774], [52.90133459, 43.42372228], [52.90117594, 43.42344978], [52.90117276, 43.42344541], [52.90094779, 43.42313642], [52.90065526, 43.42271395], [52.90014652, 43.42197918], [52.89992849, 43.42166429], [52.89965963, 43.42123675], [52.89921177, 43.42052455], [52.89919508, 43.42048688], [52.89884803, 43.41970369], [52.89860688, 43.41915948], [52.89850527, 43.41891951], [52.89817227, 43.41813308], [52.89783929, 43.41734665], [52.89779571, 43.41724371], [52.89751053, 43.41655928], [52.89734157, 43.41615378], [52.89717747, 43.41577288], [52.89698185, 43.4153188], [52.89680325, 43.41499705], [52.89637975, 43.41423411], [52.89595626, 43.41347117], [52.89553941, 43.41272015], [52.89553373, 43.41270797], [52.89517083, 43.41192861], [52.89480794, 43.41114925], [52.89465811, 43.41082745]]</t>
+  </si>
+  <si>
+    <t>[[52.89870401, 43.41449337], [52.89797183, 43.41486265], [52.89704336, 43.41533093], [52.89699151, 43.41535708], [52.89690844, 43.41536782], [52.89684838, 43.41534338], [52.89651206, 43.41472476], [52.89617518, 43.41410507], [52.89610008, 43.4139585], [52.89580563, 43.41338381], [52.89570856, 43.41318655], [52.89553714, 43.4128382], [52.89553299, 43.41283155], [52.89533016, 43.41241115], [52.89495557, 43.41163474], [52.894581, 43.41085833]]</t>
+  </si>
+  <si>
+    <t>[[52.89037686, 43.39901487], [52.88994756, 43.39909092], [52.88984353, 43.39937279], [52.88980207, 43.3994845], [52.88977655, 43.39957589], [52.88955131, 43.40038238], [52.88932607, 43.40118886], [52.88910082, 43.40199535], [52.88904022, 43.40221234], [52.88892826, 43.40280837], [52.88877509, 43.40362379], [52.8887052, 43.40399587], [52.88859465, 43.40443604], [52.88839132, 43.40524562], [52.88837736, 43.40530121], [52.88812023, 43.40604445], [52.88784414, 43.40684249], [52.88756804, 43.40764054], [52.88729194, 43.40843858], [52.88701583, 43.40923662], [52.88673971, 43.41003466], [52.88656148, 43.41054975], [52.88673274, 43.4108135], [52.88721576, 43.4115574], [52.88724098, 43.41159624], [52.88764696, 43.41231798], [52.8878738, 43.41272125], [52.88769954, 43.41308699], [52.88748925, 43.41352836]]</t>
+  </si>
+  <si>
+    <t>[[52.87972099, 43.42426435], [52.87930164, 43.42379652], [52.87924158, 43.4238114], [52.87909489, 43.42362144], [52.87899615, 43.42349357], [52.87897986, 43.42347264], [52.87893232, 43.42312231], [52.8789527, 43.42282248], [52.87895783, 43.42274695], [52.87885575, 43.4222146], [52.87877923, 43.42201226], [52.87847917, 43.42121882], [52.87817912, 43.42042537], [52.87810976, 43.42024196], [52.87775402, 43.41966474], [52.87768383, 43.41955084], [52.87726091, 43.41892442], [52.87676237, 43.41818596], [52.87626383, 43.4174475], [52.87604683, 43.41712605]]</t>
+  </si>
+  <si>
+    <t>[[52.86401808, 43.41145714], [52.86402105, 43.41145996], [52.86470877, 43.41211267], [52.8653965, 43.41276538], [52.86608425, 43.41341808], [52.86677202, 43.41407077], [52.86745979, 43.41472346], [52.8679827, 43.41521968], [52.86817121, 43.41536127], [52.86895757, 43.41595186], [52.86908858, 43.41605025], [52.86968888, 43.41657844], [52.86982035, 43.41669411], [52.87040871, 43.41721252], [52.87112844, 43.41784666], [52.87184819, 43.4184808]]</t>
+  </si>
+  <si>
+    <t>[[52.85041828, 43.42108049], [52.8505228, 43.42149264], [52.85063438, 43.42182633], [52.85067537, 43.42187888], [52.85099438, 43.42228792], [52.85108276, 43.42245313], [52.85103219, 43.42254472], [52.85099276, 43.42261558], [52.85091382, 43.42275746], [52.85087645, 43.42280705], [52.85067384, 43.42307686], [52.85050923, 43.4233182], [52.85048697, 43.42335062], [52.85037454, 43.42351439], [52.85029368, 43.42360695], [52.85005614, 43.42387684], [52.84988856, 43.42404708], [52.8498414, 43.42409498], [52.84965289, 43.42428725], [52.84968544, 43.42447677]]</t>
+  </si>
+  <si>
+    <t>[[52.86131852, 43.42769633], [52.86146591, 43.42759454], [52.8613533, 43.42743055], [52.86131348, 43.42738284], [52.86115985, 43.42720961], [52.86128553, 43.42699912], [52.86173611, 43.42624444], [52.86218668, 43.42548976], [52.86220067, 43.42546632], [52.86164961, 43.42477738], [52.86108088, 43.42406636], [52.86093396, 43.42388267], [52.86056374, 43.42333514], [52.86027134, 43.42290269], [52.86001714, 43.42261652], [52.85975015, 43.42231593]]</t>
+  </si>
+  <si>
+    <t>[[52.84701996, 43.4294816], [52.84704663, 43.42935346], [52.8470453, 43.42933891], [52.84704729, 43.42933442], [52.84713583, 43.42933247], [52.84714137, 43.42931623], [52.84714345, 43.42930583], [52.84714854, 43.42929071], [52.84718046, 43.4291872], [52.84719783, 43.42913567], [52.84720632, 43.42913719], [52.84726397, 43.42882258], [52.84726909, 43.42879023], [52.84733916, 43.4287857], [52.84758275, 43.42876997], [52.84766263, 43.4285316], [52.84784815, 43.42815576], [52.84804185, 43.42776335], [52.84794755, 43.42775725], [52.84799238, 43.42768412], [52.84810892, 43.42768961], [52.8481991, 43.42753088], [52.84863107, 43.42677044], [52.84906303, 43.42601], [52.8492406, 43.42569739], [52.84934669, 43.42521891], [52.84940928, 43.42493661], [52.84943957, 43.42448156]]</t>
+  </si>
+  <si>
+    <t>[[52.90940307, 43.3824404], [52.90948109, 43.38260302], [52.90955498, 43.38280235], [52.909576, 43.38292043], [52.9096954, 43.3835914], [52.90973971, 43.38373423], [52.90998872, 43.38453699], [52.9100847, 43.38484642], [52.91018684, 43.38534669], [52.91035305, 43.38616076], [52.91035934, 43.38619157], [52.91027481, 43.38675415], [52.91031145, 43.3869785], [52.91033608, 43.38712938], [52.91034439, 43.38722128], [52.91038806, 43.38770438], [52.9103907, 43.38779921]]</t>
+  </si>
+  <si>
+    <t>BG-UPSV-1</t>
+  </si>
+  <si>
+    <t>[[52.909188, 43.40513538], [52.90887944, 43.40475055], [52.90854337, 43.40433139], [52.90832148, 43.40403518], [52.90789218, 43.40346209], [52.90777584, 43.40331472], [52.9073703, 43.40280102], [52.90729228, 43.40283295], [52.90720496, 43.40272792], [52.90725326, 43.40270456], [52.90728773, 43.40268789], [52.90713284, 43.40250157], [52.90675121, 43.40199838], [52.90659499, 43.4017924], [52.90621221, 43.40127524], [52.90608051, 43.40109731], [52.90588922, 43.40080588], [52.90572484, 43.40053331], [52.90531992, 43.39986186], [52.90526113, 43.39978325], [52.90474878, 43.39909808], [52.90472517, 43.39905907], [52.9044541, 43.39861119], [52.90429423, 43.39829874], [52.90420662, 43.39812751], [52.90420226, 43.39798847], [52.90365768, 43.3978306], [52.90363755, 43.39775821], [52.90341328, 43.39695158], [52.90318902, 43.39614495], [52.90311099, 43.39586426], [52.9034355, 43.39578334], [52.90352591, 43.39575244], [52.9036296, 43.39582061], [52.90375396, 43.39588621]]</t>
+  </si>
+  <si>
+    <t>[[52.909188, 43.40513538], [52.9086612, 43.40440746], [52.90813442, 43.40367954], [52.90803425, 43.40354112], [52.9075623, 43.40297029], [52.90725946, 43.402604], [52.90699482, 43.40225894], [52.90644388, 43.40154059], [52.90640101, 43.40148469], [52.90596482, 43.40079555], [52.90549183, 43.40004826], [52.90541645, 43.39992916], [52.90506402, 43.39943673], [52.90497313, 43.39931749], [52.90482003, 43.39911665], [52.90452183, 43.39862913], [52.90449262, 43.39857363], [52.90425751, 43.39812684], [52.90426428, 43.39795448], [52.90404865, 43.39788464], [52.90370176, 43.39777228], [52.90354614, 43.39723793], [52.90331169, 43.39643285], [52.90315438, 43.39589268], [52.90350202, 43.39579737], [52.90351708, 43.39579324], [52.90375396, 43.39588621]]</t>
+  </si>
+  <si>
+    <t>BG GU-6</t>
+  </si>
+  <si>
+    <t>[[52.84895818, 43.45279112], [52.84892983, 43.45242073], [52.84884665, 43.45210852], [52.84880929, 43.45197728], [52.84880809, 43.45197305], [52.84872264, 43.45115671], [52.84863675, 43.45033606], [52.84855086, 43.44951541], [52.84855032, 43.44951027], [52.84847041, 43.44869447], [52.84839, 43.44787353], [52.84838708, 43.44784372]]</t>
+  </si>
+  <si>
+    <t>K-12</t>
+  </si>
+  <si>
+    <t>[[52.75333567, 43.45559813], [52.75324701, 43.45477764], [52.7532123, 43.45445634], [52.75315563, 43.45395731], [52.75315348, 43.45393843], [52.75302698, 43.45342129], [52.75301965, 43.45319991], [52.75306557, 43.45315332], [52.75332389, 43.45289126]]</t>
+  </si>
+  <si>
+    <t>BG GU18&amp;GU43</t>
+  </si>
+  <si>
+    <t>[[52.8415478, 43.4119262], [52.84059097, 43.41236304], [52.83963413, 43.41279987], [52.83867727, 43.41323669], [52.83772041, 43.4136735], [52.83676352, 43.41411031], [52.83580663, 43.41454711], [52.83484972, 43.4149839], [52.8346423, 43.41507857], [52.83396394, 43.41549212], [52.83309783, 43.41602011], [52.83223171, 43.41654809], [52.83136558, 43.41707606], [52.83117625, 43.41719146], [52.83049943, 43.41760402], [52.82963326, 43.41813198], [52.82876708, 43.41865993], [52.82815275, 43.41903437], [52.82794948, 43.4192223], [52.82725039, 43.4198686], [52.82655128, 43.4205149], [52.82585216, 43.4211612], [52.82515302, 43.42180749], [52.82445387, 43.42245378], [52.8243996, 43.42250394]]</t>
+  </si>
+  <si>
+    <t>BG GU31&amp;GU109</t>
+  </si>
+  <si>
+    <t>[[52.77469305, 43.43011054], [52.77510595, 43.43071617], [52.77518551, 43.430851], [52.77563164, 43.43160709], [52.77607779, 43.43236318], [52.77615849, 43.43249994], [52.77646709, 43.43313549], [52.77684384, 43.43391137], [52.77703904, 43.43431337], [52.77728526, 43.43466707], [52.77779623, 43.43540105], [52.77830721, 43.43613504], [52.77865072, 43.43662846], [52.77887478, 43.43684317], [52.77895571, 43.43692073], [52.77882906, 43.43764044], [52.77873336, 43.43818427], [52.77836223, 43.4382327], [52.77798313, 43.43828218], [52.77737978, 43.43835833]]</t>
+  </si>
+  <si>
+    <t>K-9</t>
+  </si>
+  <si>
+    <t>[[52.82374278, 43.45861261], [52.8243195, 43.45790488], [52.8248962, 43.45719715], [52.82547289, 43.45648941], [52.82604956, 43.45578167], [52.82662623, 43.45507392], [52.82720288, 43.45436618], [52.82777951, 43.45365842], [52.82835613, 43.45295067], [52.82893274, 43.45224292], [52.82950934, 43.45153516], [52.83008592, 43.45082739], [52.83023556, 43.45064371], [52.83064761, 43.45011335], [52.83120407, 43.44939709], [52.83176052, 43.44868083], [52.83231696, 43.44796457], [52.83287338, 43.44724831], [52.83342979, 43.44653205], [52.83398619, 43.44581578], [52.83454257, 43.44509951], [52.83496494, 43.44455575], [52.83501346, 43.44443529], [52.83503445, 43.44436423], [52.83506292, 43.44426784], [52.8351864, 43.44407014], [52.83522248, 43.44405598]]</t>
+  </si>
+  <si>
+    <t>K-3</t>
+  </si>
+  <si>
+    <t>[[52.81055079, 43.44359644], [52.81038989, 43.44339308], [52.81033369, 43.44316809], [52.81030505, 43.44307524], [52.81025913, 43.44292637], [52.81022562, 43.44283678], [52.81021409, 43.44280459], [52.81047031, 43.44273902], [52.81032676, 43.44240875], [52.80998573, 43.44162412], [52.8096447, 43.4408395], [52.80953746, 43.44059275], [52.80932723, 43.44004974], [52.80902056, 43.43925763], [52.8087139, 43.43846551], [52.80840724, 43.43767339], [52.80839873, 43.4376514], [52.80813016, 43.43687552], [52.80798534, 43.43645715], [52.80793907, 43.43606705], [52.8078418, 43.43524707], [52.80774453, 43.43442709]]</t>
+  </si>
+  <si>
+    <t>BG GU42</t>
+  </si>
+  <si>
+    <t>[[52.80290868, 43.41164327], [52.80318173, 43.41191469], [52.80327234, 43.41200476], [52.8039465, 43.41235531], [52.80398681, 43.41245889], [52.80419257, 43.41298762], [52.80420163, 43.41326098], [52.8042289, 43.41408377], [52.80424281, 43.41450346], [52.80416166, 43.41490232], [52.80407403, 43.41533304], [52.80409891, 43.41572022], [52.80411292, 43.41593831], [52.80424249, 43.4165356], [52.80427645, 43.41669214], [52.80443432, 43.41734665], [52.80446415, 43.41747031], [52.80450811, 43.41816705], [52.80455997, 43.41898922], [52.80459768, 43.41958697], [52.80458136, 43.41981131], [52.80453829, 43.42040338], [52.8045711, 43.42063227], [52.80467018, 43.42132347], [52.8047086, 43.42144844], [52.80495549, 43.42225156], [52.80499428, 43.42237771], [52.80523073, 43.42294558], [52.8052936, 43.42303481], [52.80542723, 43.42322446], [52.80594736, 43.42370214], [52.80664934, 43.42434681], [52.80735133, 43.42499147], [52.80805334, 43.42563613], [52.80812631, 43.42570314], [52.80876484, 43.42627524], [52.80947746, 43.4269137], [52.81019008, 43.42755216], [52.81090273, 43.42819061], [52.81128034, 43.4285289], [52.81159934, 43.4288382], [52.81219948, 43.42942009], [52.81226776, 43.42950112], [52.81285876, 43.43020245], [52.81344977, 43.43090378], [52.81347335, 43.43093177], [52.81413478, 43.4315579]]</t>
+  </si>
+  <si>
+    <t>[[52.82448025, 43.42204338], [52.8243996, 43.42250394]]</t>
+  </si>
+  <si>
+    <t>[[52.83674808, 43.44271022], [52.83631457, 43.44308502], [52.83626473, 43.44313044], [52.83605823, 43.4433453], [52.83604846, 43.44335547], [52.83582176, 43.44359166], [52.83570648, 43.44368542], [52.83561148, 43.44375121], [52.83529696, 43.44396504], [52.8352898, 43.44396992], [52.83522248, 43.44405598]]</t>
+  </si>
+  <si>
+    <t>BG-GU46</t>
+  </si>
+  <si>
+    <t>[[52.89782831, 43.45394646], [52.89797034, 43.45382897], [52.89819031, 43.45373682], [52.89821134, 43.45372582], [52.89837314, 43.45366349], [52.89846151, 43.4536379], [52.89852014, 43.45362432], [52.8986704, 43.45358995], [52.89864233, 43.4535407], [52.89852973, 43.45334313], [52.89850373, 43.45329976], [52.89808689, 43.45282713], [52.89795975, 43.45268297], [52.89756956, 43.45209656], [52.89734801, 43.45176359], [52.89711867, 43.45134252], [52.89703824, 43.45119484], [52.89675462, 43.45056365]]</t>
+  </si>
+  <si>
+    <t>BG GU47</t>
+  </si>
+  <si>
+    <t>[[52.86137202, 43.44480224], [52.86135029, 43.44516049], [52.86128997, 43.44542907], [52.86127925, 43.44547324], [52.86132145, 43.44561742], [52.86141818, 43.44594789], [52.86143784, 43.44601461], [52.86154171, 43.44642457], [52.86173774, 43.4471983]]</t>
+  </si>
+  <si>
+    <t>BG GU48&amp;GU49</t>
+  </si>
+  <si>
+    <t>[[52.87600564, 43.45340675], [52.87599294, 43.45292197], [52.87597605, 43.45227733], [52.87598406, 43.45209915], [52.87602104, 43.45127656], [52.87605803, 43.45045397], [52.87606558, 43.45028596], [52.8761572, 43.44963444], [52.87627234, 43.44881569], [52.87628449, 43.44872924], [52.87639582, 43.4479976], [52.87640054, 43.44796658], [52.87648958, 43.44717742], [52.87657749, 43.44639816], [52.87657371, 43.44635711]]</t>
+  </si>
+  <si>
+    <t>[[52.87608769, 43.43696469], [52.87604316, 43.43723022], [52.87603849, 43.43724352], [52.87599316, 43.43743548], [52.8759318, 43.43769537], [52.87599018, 43.43825307], [52.87607609, 43.43907372], [52.87610496, 43.43934942], [52.87622909, 43.43988806], [52.87631708, 43.44063599], [52.87632078, 43.44070865], [52.87636267, 43.44153111], [52.87640455, 43.44235358], [52.87640677, 43.44239719], [52.87640696, 43.44317658], [52.87640716, 43.44399962], [52.87640736, 43.44482265], [52.87640745, 43.44519396], [52.87637236, 43.44559648], [52.87636568, 43.44564462], [52.87628735, 43.44620879], [52.87657371, 43.44635711]]</t>
+  </si>
+  <si>
+    <t>[[52.91745124, 43.44001053], [52.91755233, 43.44047321], [52.9175655, 43.44051081], [52.91768729, 43.44085851], [52.91748442, 43.44129853], [52.9174532, 43.44136625], [52.916954, 43.44184567], [52.91681057, 43.44195298], [52.91643329, 43.44223527], [52.91602251, 43.44254261], [52.91565338, 43.44281879], [52.91528152, 43.44316232], [52.91468851, 43.44371013], [52.91457426, 43.44380381], [52.91382399, 43.44441906], [52.91376251, 43.44446948], [52.91302448, 43.44500028], [52.9128546, 43.44512246], [52.91210372, 43.44547179], [52.91115165, 43.44591471], [52.91075938, 43.4460972], [52.91014136, 43.4462745], [52.91007754, 43.44629281], [52.90947519, 43.44650587], [52.90911562, 43.44661858], [52.90807796, 43.44694384], [52.90784813, 43.44701588], [52.90703793, 43.44726508], [52.90599723, 43.44758517], [52.9058956, 43.44761642], [52.90495843, 43.44790852], [52.9043364, 43.44810239], [52.90391146, 43.44821692], [52.90313827, 43.44842532], [52.90285739, 43.44851238], [52.90181788, 43.44883456], [52.90175195, 43.448855], [52.90076774, 43.44913784], [52.90044454, 43.44923072], [52.89972059, 43.44944658], [52.89901079, 43.44965822], [52.8986763, 43.44976046], [52.89764993, 43.45007417], [52.89763612, 43.45008093], [52.89685219, 43.45046477], [52.89676022, 43.45050943], [52.89675462, 43.45056365]]</t>
+  </si>
+  <si>
+    <t>[[52.93278982, 43.43132657], [52.93260258, 43.431873], [52.93253073, 43.43198751], [52.93242022, 43.43209449], [52.93189266, 43.43260516], [52.9317235, 43.4327415], [52.93096606, 43.43335199], [52.93082412, 43.4334664], [52.93012029, 43.43389559], [52.93011203, 43.43390062], [52.92934053, 43.43436349], [52.92924843, 43.43441875], [52.92856465, 43.43482898], [52.92837805, 43.43494321], [52.92777583, 43.43531187], [52.92750718, 43.43546716], [52.92692534, 43.43580348], [52.9266322, 43.43598732], [52.92599379, 43.43638771], [52.92577677, 43.43652472], [52.92543978, 43.43673746], [52.92497244, 43.43703249], [52.92492107, 43.43706181], [52.92444077, 43.4373359], [52.92402431, 43.43756206], [52.92358423, 43.43780104], [52.92310972, 43.43804486], [52.92298022, 43.4381114], [52.92218036, 43.43851256], [52.92205823, 43.43857381], [52.92133161, 43.43882113], [52.92118871, 43.43889996], [52.92028817, 43.43939673], [52.91972376, 43.43970807], [52.91943759, 43.43993365], [52.91897446, 43.44029872], [52.91868896, 43.44054956], [52.91835537, 43.44084265], [52.91793122, 43.44115899], [52.9176253, 43.44138715], [52.91718091, 43.44177345], [52.91656941, 43.44230501], [52.91645156, 43.44240185], [52.91570215, 43.44301764], [52.91544378, 43.44322994], [52.91494622, 43.44361934], [52.91493949, 43.44362468], [52.91417469, 43.44423036], [52.9138955, 43.44445146], [52.91339173, 43.44482344], [52.91314104, 43.44500853], [52.91252792, 43.44535115], [52.91204471, 43.44562117], [52.91160668, 43.44582621], [52.91082465, 43.44619225], [52.91064276, 43.44625303], [52.91036508, 43.44634582], [52.90959172, 43.4465533], [52.9090716, 43.44669284], [52.90854624, 43.44686376], [52.90766403, 43.44715077], [52.90751333, 43.44719689], [52.90647184, 43.44751561], [52.90595699, 43.44767316], [52.90543689, 43.44784525], [52.90440835, 43.44818558], [52.90438148, 43.44819447], [52.90334607, 43.44846535], [52.90319291, 43.44850542], [52.90230342, 43.44878163], [52.90174987, 43.44895352], [52.9012619, 43.44910031], [52.90022171, 43.44941321], [52.90021776, 43.44941445], [52.8991802, 43.44973996], [52.89878953, 43.44986252], [52.89814263, 43.45006547], [52.89752471, 43.45025931], [52.89712308, 43.45041804], [52.8967938, 43.45054817], [52.89675462, 43.45056365]]</t>
+  </si>
+  <si>
+    <t>uGU58</t>
+  </si>
+  <si>
+    <t>[[52.79918808, 43.47351947], [52.7989114, 43.4727627], [52.79879867, 43.47245435], [52.79859184, 43.47197346], [52.79857214, 43.47192766], [52.798324, 43.47144955], [52.79819609, 43.47120263], [52.79779721, 43.47043257], [52.79778488, 43.47040875], [52.79753973, 43.46993758], [52.79741007, 43.46965947], [52.79725193, 43.46932029], [52.79712365, 43.46886495], [52.79707598, 43.46869573], [52.79692565, 43.46812972], [52.79700553, 43.46808435], [52.79737072, 43.46787695], [52.79736795, 43.46773228], [52.79726255, 43.46739997], [52.79724858, 43.46735591], [52.7970511, 43.46688703], [52.79693993, 43.46661131], [52.79680138, 43.46626769], [52.7966184, 43.46582231], [52.79652616, 43.46559777], [52.79627229, 43.46503891], [52.7962087, 43.46489891], [52.79591532, 43.46425803], [52.79588546, 43.4641928], [52.79557006, 43.46348507], [52.7955656, 43.46347542], [52.795324, 43.4629524], [52.795245, 43.46271192], [52.79522739, 43.46269172], [52.79495668, 43.46238116], [52.79478003, 43.46194457], [52.79465645, 43.46163915], [52.79454444, 43.46117286], [52.79453485, 43.4611424], [52.79435165, 43.46056061], [52.7942635, 43.46034379], [52.79408658, 43.45990864], [52.7939978, 43.4597039], [52.79404018, 43.45958475], [52.79406151, 43.45955746], [52.79414107, 43.45945568], [52.79394843, 43.45876386], [52.79372383, 43.45795726]]</t>
+  </si>
+  <si>
+    <t>uGU58&amp;MGU38</t>
+  </si>
+  <si>
+    <t>[[52.79372383, 43.45795726], [52.79323124, 43.45804043], [52.792642, 43.45819041], [52.79230679, 43.45827573], [52.79200664, 43.45840645], [52.79187895, 43.45868672]]</t>
+  </si>
+  <si>
+    <t>BG MGU38</t>
+  </si>
+  <si>
+    <t>[[52.79187895, 43.45868672], [52.79171556, 43.45866121], [52.79100775, 43.4585507], [52.79084413, 43.45828007], [52.79038876, 43.45752684], [52.79033949, 43.45744534], [52.78989908, 43.4567852], [52.78940524, 43.45604496], [52.78891142, 43.45530471], [52.78841761, 43.45456446], [52.78792381, 43.45382421], [52.78743002, 43.45308396], [52.78693624, 43.4523437], [52.78644248, 43.45160345], [52.78594873, 43.45086319], [52.78545499, 43.45012293], [52.78496126, 43.44938266], [52.78446754, 43.4486424], [52.78397384, 43.44790213], [52.78348015, 43.44716186], [52.78298647, 43.44642159], [52.7824928, 43.44568131]]</t>
+  </si>
+  <si>
+    <t>[[52.77794006, 43.4380886], [52.77737978, 43.43835833]]</t>
+  </si>
+  <si>
+    <t>[[52.89675462, 43.45056365], [52.89622348, 43.45084595], [52.89616868, 43.45087507], [52.89585689, 43.45105207], [52.895327, 43.45130692], [52.8952966, 43.45131335], [52.89431933, 43.45152011], [52.89421082, 43.4515405], [52.89370877, 43.45163484], [52.89326913, 43.4516949], [52.8931145, 43.45165527], [52.89276808, 43.45156646], [52.89208625, 43.45131782], [52.89202607, 43.45129588], [52.89106209, 43.45097054], [52.89078379, 43.45087661], [52.890391, 43.45075531], [52.89019337, 43.45069427], [52.89002767, 43.45063994], [52.88934587, 43.45041636], [52.88899532, 43.45030577], [52.88828176, 43.45008068], [52.88795805, 43.44997976], [52.88764102, 43.44988092], [52.88692364, 43.44964899], [52.88679139, 43.44960623], [52.8862959, 43.44945655], [52.8858848, 43.44932575], [52.88543931, 43.449184], [52.88485881, 43.44898163], [52.88437932, 43.44881446], [52.88383348, 43.44863632], [52.88317867, 43.44842261], [52.88280459, 43.44829659], [52.88216825, 43.44808222], [52.88177852, 43.44795232], [52.88125588, 43.44777812], [52.88074212, 43.44762534], [52.87969626, 43.44731432], [52.87894699, 43.44709149], [52.87864836, 43.44700701], [52.87781178, 43.44677035], [52.87760069, 43.44669989], [52.87657371, 43.44635711]]</t>
+  </si>
+  <si>
+    <t>[[52.89675462, 43.45056365], [52.89625064, 43.45077456], [52.89614885, 43.45081716], [52.89583706, 43.45099416], [52.89532211, 43.45124182], [52.89530717, 43.45124901], [52.89429949, 43.45146219], [52.89423898, 43.45147357], [52.89368894, 43.45157693], [52.8932493, 43.45163699], [52.89314142, 43.45160934], [52.89274825, 43.45150855], [52.89211074, 43.45127607], [52.89200624, 43.45123796], [52.89108723, 43.4509278], [52.89076396, 43.4508187], [52.89037118, 43.45069739], [52.89017354, 43.45063636], [52.89005304, 43.45059684], [52.88932604, 43.45035844], [52.88902097, 43.45026221], [52.88826193, 43.45002276], [52.88798379, 43.44993605], [52.88762119, 43.449823], [52.88694912, 43.44960572], [52.88677157, 43.44954831], [52.88627607, 43.44939864], [52.8859104, 43.44928229], [52.88541949, 43.44912608], [52.88488369, 43.4489393], [52.88435949, 43.44875655], [52.88385889, 43.44859317], [52.88315885, 43.44836469], [52.88282975, 43.44825382], [52.88214843, 43.4480243], [52.88180377, 43.44790942], [52.88123607, 43.44772021], [52.88076819, 43.44758107], [52.87972232, 43.44727005], [52.87892718, 43.44703357], [52.87867475, 43.44696216], [52.87779197, 43.44671243], [52.87762242, 43.44666298], [52.87657371, 43.44635711]]</t>
+  </si>
+  <si>
+    <t>[[52.87657371, 43.44635711], [52.87653965, 43.44629443], [52.87649818, 43.44627743], [52.87635571, 43.44628582], [52.87609227, 43.44630132], [52.87545791, 43.44635063], [52.87523509, 43.44638354], [52.87424614, 43.44652962], [52.87412698, 43.44654291], [52.87325723, 43.44663996], [52.87300819, 43.44665336], [52.87204503, 43.44670517], [52.87188137, 43.44671068], [52.87110137, 43.44673692], [52.87075297, 43.44674901], [52.86992341, 43.44677777], [52.86962488, 43.44679137], [52.86849746, 43.44684275], [52.86831187, 43.4468512], [52.86736953, 43.44688768], [52.8671884, 43.44689469], [52.86624284, 43.44694652], [52.86577841, 43.44697198], [52.86511619, 43.44700619], [52.86460917, 43.44703238], [52.86398984, 43.44706867], [52.86381494, 43.44707892], [52.86286394, 43.44713547], [52.86247348, 43.44715868], [52.86181242, 43.44719716], [52.86173774, 43.4471983]]</t>
+  </si>
+  <si>
+    <t>[[52.87657371, 43.44635711], [52.87655946, 43.44635235], [52.87651799, 43.44633535], [52.8763466, 43.44634544], [52.87611208, 43.44635924], [52.87547772, 43.44640855], [52.87522646, 43.44644566], [52.87426595, 43.44658753], [52.87411811, 43.44660403], [52.87327704, 43.44669788], [52.87299906, 43.44671284], [52.87206484, 43.44676309], [52.87187219, 43.44676957], [52.87112118, 43.44679484], [52.8707438, 43.44680793], [52.86994322, 43.44683569], [52.86961572, 43.44685061], [52.86848831, 43.44690199], [52.86833168, 43.44690912], [52.86736036, 43.44694672], [52.8672082, 43.44695261], [52.86623371, 43.44700603], [52.86579822, 43.4470299], [52.86510705, 43.4470656], [52.86462897, 43.4470903], [52.86398072, 43.44712829], [52.86383474, 43.44713684], [52.86285482, 43.4471951], [52.86249328, 43.4472166], [52.86196658, 43.44724726], [52.86173774, 43.4471983]]</t>
+  </si>
+  <si>
+    <t>BG GU6</t>
+  </si>
+  <si>
+    <t>[[52.86173774, 43.4471983], [52.86165127, 43.44721857], [52.86153893, 43.4472449], [52.86133852, 43.44728436], [52.8607195, 43.44735929], [52.86054505, 43.44737889], [52.85957364, 43.447488], [52.85942933, 43.4475074], [52.85837629, 43.44764898], [52.85831817, 43.44765555], [52.85728857, 43.44777177], [52.85720198, 43.44778214], [52.85608732, 43.4479157], [52.85590787, 43.4479372], [52.85497529, 43.44806039], [52.85493284, 43.448066], [52.85417331, 43.44814312], [52.85385713, 43.44817725], [52.85311021, 43.44825788], [52.85274077, 43.4483029], [52.85219003, 43.44837001], [52.85162374, 43.44842478], [52.85142961, 43.44844356], [52.8507736, 43.44846025], [52.85050448, 43.4484112], [52.85021707, 43.44835882], [52.84942939, 43.44816053], [52.84932805, 43.44813502], [52.84884337, 43.44798807], [52.84838708, 43.44784372]]</t>
+  </si>
+  <si>
+    <t>[[52.86173774, 43.4471983], [52.86168667, 43.44719908], [52.86154172, 43.44720129], [52.86151092, 43.44720318], [52.86069971, 43.44730137], [52.86056983, 43.44731596], [52.85955384, 43.44743008], [52.8594539, 43.44744352], [52.8583565, 43.44759106], [52.85834295, 43.44759259], [52.85726877, 43.44771384], [52.8572267, 43.44771889], [52.85611204, 43.44785245], [52.85588808, 43.44787928], [52.85499988, 43.44799661], [52.85491304, 43.44800808], [52.85415351, 43.4480852], [52.85388196, 43.44811451], [52.85309042, 43.44819996], [52.85276547, 43.44823955], [52.85217024, 43.44831208], [52.85164867, 43.44836254], [52.85140982, 43.44838564], [52.85075381, 43.44840233], [52.85052846, 43.44836126], [52.85019728, 43.4483009], [52.84945224, 43.44811335], [52.84930826, 43.4480771], [52.84882358, 43.44793014], [52.84838708, 43.44784372]]</t>
+  </si>
+  <si>
+    <t>[[52.84838708, 43.44784372], [52.8482151, 43.44773765], [52.84779113, 43.44762908], [52.84745284, 43.44754245], [52.84690498, 43.44741997], [52.84671813, 43.44737228], [52.84591755, 43.44716792], [52.84565016, 43.44710418], [52.84529935, 43.44702057], [52.84457531, 43.44685102], [52.84349988, 43.44659918], [52.84299094, 43.44647999], [52.84243322, 43.44632889], [52.841822, 43.4461633], [52.84136941, 43.44605241], [52.84059824, 43.44586346], [52.84029319, 43.44580337], [52.83945917, 43.4456391], [52.83920823, 43.44557561], [52.83858588, 43.44541815], [52.83817326, 43.44525299], [52.83772884, 43.44507509], [52.83719527, 43.44484144], [52.83688008, 43.44470342], [52.83622339, 43.44442201], [52.83601228, 43.44433154], [52.83570091, 43.44417266], [52.83522248, 43.44405598]]</t>
+  </si>
+  <si>
+    <t>[[52.84838708, 43.44784372], [52.84823489, 43.44779557], [52.84776533, 43.44767533], [52.84747262, 43.44760037], [52.84692476, 43.44747789], [52.84669231, 43.44741856], [52.84593733, 43.44722584], [52.84562402, 43.44715116], [52.84531914, 43.44707849], [52.84454909, 43.44689817], [52.84347366, 43.44664633], [52.84301072, 43.44653791], [52.84240771, 43.44637455], [52.84184178, 43.44622122], [52.84134338, 43.44609911], [52.84061802, 43.44592138], [52.84026632, 43.44585211], [52.83947895, 43.44569702], [52.83918236, 43.44562198], [52.83860565, 43.44547608], [52.83815068, 43.44529396], [52.83774862, 43.44513301], [52.83717363, 43.44488123], [52.83689986, 43.44476135], [52.83620152, 43.44446209], [52.83603205, 43.44438947], [52.83572068, 43.44423058], [52.83522248, 43.44405598]]</t>
+  </si>
+  <si>
+    <t>BG-37</t>
+  </si>
+  <si>
+    <t>[[52.83522248, 43.44405598], [52.83454144, 43.44376184], [52.83424607, 43.44364231], [52.83386805, 43.44348932], [52.83326106, 43.44323949], [52.83312894, 43.44318512], [52.83232505, 43.44283224], [52.83229213, 43.44281659], [52.83172804, 43.44254849], [52.83135395, 43.44235841], [52.83064811, 43.44199975], [52.83044311, 43.44187283], [52.83002117, 43.44161157], [52.82967749, 43.44139945], [52.82963785, 43.44142887], [52.82958416, 43.44139749], [52.82956888, 43.44138856], [52.82960325, 43.44135347], [52.82908989, 43.44102802], [52.82881472, 43.44084745], [52.82811675, 43.44038941], [52.8279728, 43.44029883], [52.82711793, 43.43976092], [52.82692987, 43.43964258], [52.82627406, 43.4392139], [52.8259634, 43.43901083], [52.82551275, 43.43860903], [52.82543252, 43.4385375], [52.82490431, 43.4380135], [52.8248396, 43.43794828], [52.82444241, 43.43754797], [52.82419195, 43.43727418], [52.82398013, 43.43704262], [52.82354601, 43.43659915], [52.82315733, 43.43620208], [52.82293704, 43.43590771], [52.82251429, 43.43534282], [52.82241036, 43.43517997], [52.82227559, 43.4349688], [52.82233198, 43.43494962], [52.82229557, 43.43488313], [52.82222926, 43.43489647], [52.8220287, 43.43449944], [52.82187699, 43.43419911], [52.82171978, 43.43384206], [52.82166497, 43.43372043], [52.82137555, 43.43307821], [52.82130627, 43.43294009], [52.82115879, 43.43264606], [52.82090326, 43.4321713], [52.82083381, 43.43204228], [52.82047364, 43.43141017], [52.82046177, 43.43138933], [52.82005469, 43.43065549], [52.82004295, 43.43065292], [52.8200265, 43.43064933], [52.81999252, 43.4306052], [52.81971318, 43.43022948], [52.81967278, 43.43016781], [52.81950682, 43.42993287], [52.81920309, 43.42950287]]</t>
+  </si>
+  <si>
+    <t>[[52.83522248, 43.44405598], [52.83421189, 43.44368832], [52.83414249, 43.44366307], [52.83324198, 43.44326681], [52.8329788, 43.44315101], [52.83228512, 43.44282953], [52.83133203, 43.44238782], [52.83132142, 43.4423829], [52.83044802, 43.44187558], [52.83026352, 43.44176841], [52.82956802, 43.44135962], [52.82952298, 43.44133315], [52.82871192, 43.44082277], [52.82846508, 43.44066744], [52.82785262, 43.44028862], [52.82751297, 43.44007854], [52.827065, 43.43970191], [52.82684296, 43.43951523], [52.82622278, 43.43915809], [52.82582032, 43.43892632], [52.82542818, 43.43857968], [52.82500926, 43.43820937], [52.82475774, 43.4379193], [52.82440979, 43.43751803], [52.82412795, 43.43723664], [52.82384557, 43.4369547], [52.82348388, 43.43656075], [52.82328136, 43.43634015], [52.82288372, 43.43586373], [52.82257609, 43.43549515], [52.82236943, 43.43513363], [52.82193514, 43.43437388], [52.82180029, 43.43413799], [52.82159313, 43.43359095], [52.82141239, 43.43311369], [52.8212483, 43.43280834], [52.82083646, 43.43204198], [52.82042463, 43.43127562], [52.82028395, 43.43101384], [52.81993905, 43.43053377], [52.81986079, 43.43042484], [52.81941769, 43.4298037], [52.81920309, 43.42950287]]</t>
+  </si>
+  <si>
+    <t>[[52.81920309, 43.42950287], [52.81919912, 43.42949724], [52.818231, 43.42990856], [52.81725536, 43.43032306], [52.8168241, 43.43050627], [52.81627671, 43.43073375], [52.81529567, 43.43114144], [52.81431461, 43.43154911], [52.8137188, 43.43179669], [52.81333917, 43.43196377], [52.81247772, 43.43234288], [52.81237241, 43.4323892], [52.81140546, 43.43281442], [52.8104385, 43.43323964], [52.80996276, 43.43344884], [52.80947339, 43.43366708], [52.80851007, 43.43409668], [52.80777945, 43.43442249], [52.80754476, 43.43452388], [52.80751282, 43.43453768], [52.80749065, 43.43450653], [52.8073155, 43.43459319], [52.80724496, 43.43451375], [52.80667827, 43.43477427], [52.80665231, 43.43478855], [52.80645893, 43.43489492], [52.8065042, 43.43495514], [52.80620394, 43.43510038], [52.80583905, 43.4352696], [52.80564292, 43.43536054], [52.80489633, 43.43572279], [52.8042643, 43.43602945], [52.80395777, 43.4361806], [52.80313818, 43.43658473], [52.80310843, 43.43655172], [52.80303758, 43.43658686], [52.80306688, 43.43661682], [52.80223629, 43.43705069], [52.80218862, 43.43707339], [52.80124309, 43.43752354], [52.80088755, 43.4376928], [52.80030684, 43.4379838], [52.79962168, 43.43832712], [52.79937295, 43.43844664], [52.79879502, 43.43872436], [52.79842882, 43.43889837], [52.79827529, 43.43897132], [52.79780852, 43.43918507], [52.79747416, 43.43933818], [52.79681693, 43.43963914], [52.79684242, 43.43968672], [52.79666856, 43.43975929], [52.7966309, 43.43971821], [52.79661787, 43.43972361], [52.79620682, 43.43989385], [52.7956359, 43.4401303], [52.79518723, 43.44031612], [52.79464305, 43.44052241], [52.79422346, 43.44068146], [52.79366675, 43.44093505], [52.79307217, 43.44120589], [52.79271531, 43.44137847], [52.79178687, 43.44182746], [52.79177878, 43.44181807], [52.79174069, 43.44177382], [52.79076152, 43.44206552], [52.79047496, 43.44215089], [52.78971889, 43.44238207], [52.78943377, 43.44246925], [52.7886837, 43.44271129], [52.78806626, 43.44291052], [52.78766094, 43.44305999], [52.78716675, 43.44324222], [52.78668032, 43.44346656], [52.78613413, 43.44371846], [52.78573527, 43.44391713], [52.78480275, 43.44438159], [52.78471033, 43.44442762], [52.78418271, 43.44472892], [52.7839111, 43.44488658], [52.78349453, 43.44512839], [52.78350652, 43.44514539], [52.78305869, 43.4454032], [52.78283318, 43.44553302], [52.7824928, 43.44568131]]</t>
+  </si>
+  <si>
+    <t>UPSV2</t>
+  </si>
+  <si>
+    <t>[[52.7824928, 43.44568131], [52.78188059, 43.44594804], [52.78150148, 43.44607334], [52.78047278, 43.44641336], [52.78010535, 43.44653481], [52.77943919, 43.44674536], [52.7791963, 43.44682212], [52.77915324, 43.44675673], [52.77908205, 43.44677647], [52.77911802, 43.44684872], [52.77858405, 43.44702042], [52.77755059, 43.44735271], [52.77737543, 43.44740902], [52.7765272, 43.44770109], [52.77646819, 43.4477214], [52.77649159, 43.44776109], [52.77561325, 43.44811707], [52.77528219, 43.44825124], [52.77461668, 43.44850448], [52.77361537, 43.4488855], [52.77327395, 43.44901541], [52.77259761, 43.44924211], [52.77252388, 43.44926682], [52.77249357, 43.44922715], [52.77159202, 43.44951836], [52.77084076, 43.44976102], [52.77053919, 43.44980623], [52.76943269, 43.4499721], [52.76832619, 43.45013796], [52.76721968, 43.45030381], [52.76611316, 43.45046965], [52.76500664, 43.45063548], [52.76390012, 43.4508013], [52.76279358, 43.4509671], [52.76168704, 43.4511329], [52.7605805, 43.45129868], [52.75947395, 43.45146446], [52.75836739, 43.45163022], [52.75726083, 43.45179598], [52.75615426, 43.45196172], [52.75504768, 43.45212745], [52.7539411, 43.45229317], [52.75283451, 43.45245888], [52.75172792, 43.45262458], [52.75152413, 43.45265509], [52.75067359, 43.45239642], [52.75024646, 43.45226651], [52.74961207, 43.45241626], [52.74939609, 43.45246724]]</t>
+  </si>
+  <si>
+    <t>[[52.8243996, 43.42250394], [52.82437564, 43.4226408], [52.82436578, 43.42269707], [52.82391516, 43.42335969], [52.82388118, 43.42334956], [52.82379383, 43.42332352], [52.82373386, 43.42341593], [52.82386042, 43.42345202], [52.82351431, 43.42394408], [52.82299915, 43.42467648], [52.82248398, 43.42540887], [52.8221255, 43.42591849], [52.82202041, 43.42590111], [52.82189805, 43.42604795], [52.82131185, 43.4267514], [52.82091014, 43.42723346], [52.82073443, 43.42745862], [52.82017612, 43.42817403], [52.81961779, 43.42888943], [52.81935741, 43.42922307], [52.8188373, 43.42944492], [52.81786266, 43.42986065], [52.816888, 43.43027637], [52.81591333, 43.43069208], [52.81493864, 43.43110778], [52.81478392, 43.43117376], [52.8148451, 43.43125486], [52.81413478, 43.4315579]]</t>
+  </si>
+  <si>
+    <t>[[52.81413478, 43.4315579], [52.81338172, 43.43187918], [52.81240708, 43.43229497], [52.81143244, 43.43271076], [52.81135229, 43.43274495], [52.81045168, 43.43311883], [52.80984027, 43.43337265], [52.8094757, 43.43353284], [52.80850853, 43.43395782], [52.80788558, 43.43423154], [52.80795488, 43.43433224], [52.80778488, 43.43440971], [52.80774453, 43.43442709]]</t>
+  </si>
+  <si>
+    <t>[[52.80774453, 43.43442709], [52.80724888, 43.43457507], [52.80671362, 43.4348332], [52.80662877, 43.43486365], [52.80612679, 43.43504373], [52.80553595, 43.43527304], [52.80550066, 43.43529113], [52.80446033, 43.4358246], [52.80418496, 43.43596581], [52.80341162, 43.43634925], [52.80311006, 43.43649877], [52.80234664, 43.43685613], [52.80213246, 43.43695638], [52.80127401, 43.4373545], [52.80078799, 43.43757989], [52.80020391, 43.43785575], [52.799504, 43.43818631], [52.79913508, 43.43835844], [52.7986731, 43.43857399], [52.79811356, 43.43884858], [52.79813993, 43.43887865], [52.79824919, 43.43900323], [52.79781575, 43.43919276], [52.79734016, 43.43941336], [52.79684021, 43.43964526], [52.79686635, 43.43968698], [52.79665634, 43.43977236], [52.79662043, 43.43973179], [52.79635115, 43.43984348], [52.79583529, 43.44005743], [52.79524653, 43.44030331], [52.79519393, 43.44032528], [52.79423224, 43.44069428], [52.79412727, 43.44074331], [52.7930562, 43.44124353], [52.79198511, 43.44174375], [52.79177202, 43.44184327], [52.79172082, 43.44179934], [52.79085735, 43.44207006], [52.79049311, 43.44218426], [52.7896846, 43.44242936], [52.78945086, 43.44250021], [52.78851821, 43.44279947], [52.78808463, 43.44293859], [52.7873654, 43.44319127], [52.78719555, 43.44325095], [52.78628495, 43.44367903], [52.78615466, 43.44374028], [52.78525128, 43.4442192], [52.7842225, 43.44476458], [52.78421379, 43.4447692], [52.78355054, 43.44516802], [52.78323937, 43.44535296], [52.78287247, 43.44557102], [52.78218853, 43.4458717], [52.78191986, 43.44598982], [52.78104854, 43.44628085], [52.77993623, 43.44665238], [52.77989153, 43.44666642], [52.77897962, 43.44695294], [52.77872632, 43.44703856], [52.77864299, 43.44706673], [52.77746941, 43.44715945], [52.7773352, 43.44717005], [52.77621495, 43.44731309], [52.77524835, 43.44743649], [52.77496033, 43.44746675], [52.77370102, 43.44759904], [52.77363684, 43.44760579], [52.77256279, 43.4480078], [52.77220039, 43.44814344], [52.7714447, 43.44844998], [52.7709934, 43.44863305], [52.7702996, 43.44885151], [52.7697656, 43.44901965], [52.76910756, 43.44917237], [52.76832815, 43.44935327], [52.76789434, 43.4494517], [52.76667952, 43.44972734], [52.76556409, 43.44998042], [52.7654631, 43.44999887], [52.76422895, 43.4502244], [52.76299479, 43.45044992], [52.76269804, 43.45050414], [52.76177296, 43.45070795], [52.76083032, 43.45091563], [52.76055315, 43.45097154], [52.75964534, 43.45115468], [52.75932572, 43.45121578], [52.75809498, 43.45145106], [52.75703177, 43.4516543], [52.75686297, 43.45168262], [52.755623, 43.45189062], [52.75438301, 43.4520986], [52.75314302, 43.45230657], [52.75294358, 43.45234002], [52.75188976, 43.45246536], [52.75179211, 43.45247697], [52.75157891, 43.45250534], [52.75120885, 43.45237359], [52.75066534, 43.45240167], [52.74939609, 43.45246724]]</t>
+  </si>
+  <si>
+    <t>uGU31&amp;GU109</t>
+  </si>
+  <si>
+    <t>[[52.77737978, 43.43835833], [52.77718646, 43.43850535], [52.77656725, 43.43892971], [52.77608455, 43.43926052], [52.77571054, 43.4394641], [52.77506326, 43.43981641], [52.77483368, 43.43998048], [52.7740273, 43.44055678], [52.77345405, 43.44096646], [52.77315431, 43.44106091], [52.77279312, 43.44117472], [52.77223381, 43.44152331], [52.77165275, 43.44188544], [52.77141805, 43.44208905], [52.77069156, 43.44271926], [52.76996506, 43.44334947], [52.76923854, 43.44397968], [52.76851201, 43.44460988], [52.76813477, 43.4449371], [52.76802823, 43.44532509], [52.76782206, 43.446076], [52.76781012, 43.44613258], [52.76763843, 43.44694605], [52.76757239, 43.44725894], [52.76743516, 43.44775544], [52.76721216, 43.44856227], [52.76698916, 43.44936911], [52.76676614, 43.45017594], [52.76656385, 43.45090779]]</t>
+  </si>
+  <si>
+    <t>[[52.76656385, 43.45090779], [52.76545733, 43.45107362], [52.76435079, 43.45123944], [52.76324425, 43.45140525], [52.76213771, 43.45157105], [52.76103116, 43.45173684], [52.7599246, 43.45190262], [52.75881803, 43.45206839], [52.75771146, 43.45223415], [52.75660489, 43.45239989], [52.75549831, 43.45256563], [52.75439172, 43.45273135], [52.75332389, 43.45289126]]</t>
+  </si>
+  <si>
+    <t>[[52.75332389, 43.45289126], [52.75219466, 43.45286686], [52.75106542, 43.45284245], [52.75096679, 43.45284032], [52.74998652, 43.45260749], [52.74939609, 43.45246724]]</t>
+  </si>
+  <si>
+    <t>MGU-5</t>
+  </si>
+  <si>
+    <t>[[52.80786599, 43.43266502], [52.80705048, 43.43323438], [52.80686165, 43.43336621], [52.80703017, 43.43359487], [52.80729046, 43.43391594], [52.80732552, 43.43395919], [52.80774453, 43.43442709]]</t>
+  </si>
+  <si>
+    <t>MGU-34</t>
+  </si>
+  <si>
+    <t>[[52.75037499, 43.43754637], [52.75044878, 43.43760022], [52.75050145, 43.43762051], [52.75015676, 43.43786375], [52.75038497, 43.4381761], [52.75091578, 43.43890258], [52.75144661, 43.43962905], [52.75150398, 43.43970758], [52.75195468, 43.44033832], [52.75196826, 43.44035903], [52.75223862, 43.44077115], [52.75238007, 43.4411226], [52.75269794, 43.44191236], [52.75271687, 43.44195939], [52.75280417, 43.44240786], [52.75279828, 43.4427289], [52.7527832, 43.44355186], [52.75277974, 43.44374054], [52.75275484, 43.44437461], [52.75272253, 43.44519731], [52.75271558, 43.44537442], [52.75267577, 43.44572142], [52.75268528, 43.44601898], [52.75271157, 43.44684178], [52.75271195, 43.44685347], [52.75270073, 43.447206], [52.75271883, 43.44751927], [52.75274613, 43.44766307], [52.75289968, 43.44847173], [52.75290082, 43.44847835], [52.75298917, 43.44899343], [52.75301803, 43.44929665], [52.7530687, 43.44982892], [52.75307699, 43.45011834], [52.75309884, 43.45088162], [52.75310556, 43.450941], [52.7531771, 43.45157289], [52.75321593, 43.45175975], [52.75326077, 43.45197548], [52.75330241, 43.45257957], [52.75332389, 43.45289126]]</t>
+  </si>
+  <si>
+    <t>MGU-38</t>
+  </si>
+  <si>
+    <t>[[52.79278876, 43.45910036], [52.79187895, 43.45868672]]</t>
+  </si>
+  <si>
+    <t>ГУ-54</t>
+  </si>
+  <si>
+    <t>ГУ-55</t>
+  </si>
+  <si>
+    <t>ГУ-83</t>
+  </si>
+  <si>
+    <t>ГУ-84</t>
+  </si>
+  <si>
+    <t>ГУ-85</t>
+  </si>
+  <si>
+    <t>ГУ-87</t>
+  </si>
+  <si>
+    <t>ГУ-88</t>
+  </si>
+  <si>
+    <t>ГУ-89</t>
+  </si>
+  <si>
+    <t>ГУ-90</t>
+  </si>
+  <si>
+    <t>ГУ-91</t>
+  </si>
+  <si>
+    <t>ГУ-93</t>
+  </si>
+  <si>
+    <t>ГУ-6</t>
+  </si>
+  <si>
+    <t>ГУ-9</t>
+  </si>
+  <si>
+    <t>ГУ-18</t>
+  </si>
+  <si>
+    <t>ГУ-31</t>
+  </si>
+  <si>
+    <t>ГУ-40</t>
+  </si>
+  <si>
+    <t>ГУ-41</t>
+  </si>
+  <si>
+    <t>ГУ-42</t>
+  </si>
+  <si>
+    <t>ГУ-43</t>
+  </si>
+  <si>
+    <t>ГУ-45</t>
+  </si>
+  <si>
+    <t>ГУ-46</t>
+  </si>
+  <si>
+    <t>ГУ-47</t>
+  </si>
+  <si>
+    <t>ГУ-48</t>
+  </si>
+  <si>
+    <t>ГУ-49</t>
+  </si>
+  <si>
+    <t>ГУ-51</t>
+  </si>
+  <si>
+    <t>ГУ-52</t>
+  </si>
+  <si>
+    <t>ГУ-58</t>
+  </si>
+  <si>
+    <t>ГУ-109</t>
+  </si>
+  <si>
+    <t>ГУ-4</t>
+  </si>
+  <si>
+    <t>ГУ-7</t>
+  </si>
+  <si>
+    <t>ГУ-12</t>
+  </si>
+  <si>
+    <t>ГУ-13</t>
+  </si>
+  <si>
+    <t>ГУ-57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,16 +981,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -308,11 +1011,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -332,6 +1050,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -646,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4909E-F074-42A7-961F-16B93AFF1F24}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1204,7 +1943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -1216,6 +1955,1616 @@
       </c>
       <c r="D40" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="7">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="7">
+        <v>3</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="7">
+        <v>3</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="7">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="7">
+        <v>3</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="7">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>3</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
+        <v>3</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="7">
+        <v>3</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="7">
+        <v>3</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
+        <v>3</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="7">
+        <v>3</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="7">
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>3</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>3</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>3</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="7">
+        <v>3</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>3</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="7">
+        <v>3</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="7">
+        <v>3</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="7">
+        <v>3</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="7">
+        <v>3</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="7">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="7">
+        <v>3</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="7">
+        <v>3</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="7">
+        <v>3</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="7">
+        <v>3</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="7">
+        <v>3</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>3</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="7">
+        <v>3</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="7">
+        <v>3</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>3</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="7">
+        <v>3</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="7">
+        <v>3</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="7">
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="7">
+        <v>1</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="7">
+        <v>1</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="7">
+        <v>1</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="7">
+        <v>1</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="7">
+        <v>1</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="7">
+        <v>1</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="7">
+        <v>1</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="7">
+        <v>1</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="7">
+        <v>1</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="7">
+        <v>1</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="7">
+        <v>1</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="7">
+        <v>1</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="7">
+        <v>1</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="7">
+        <v>1</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="7">
+        <v>1</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="7">
+        <v>1</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="15">
+        <v>1</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="7">
+        <v>1</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="7">
+        <v>1</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="7">
+        <v>1</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="7">
+        <v>1</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="7">
+        <v>1</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="7">
+        <v>1</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="7">
+        <v>1</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="12">
+        <v>1</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="7">
+        <v>1</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="7">
+        <v>1</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="7">
+        <v>1</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="7">
+        <v>1</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="7">
+        <v>1</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="7">
+        <v>1</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D137" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D138" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D142" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D146" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D148" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D151" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D152" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D155" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/public/imports/thunkline_points.xlsx
+++ b/public/imports/thunkline_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F71C7C-D93F-4D28-84A0-F94C9425BD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718B771-6A51-483B-9A7B-4F8BD6483604}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
   </bookViews>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4909E-F074-42A7-961F-16B93AFF1F24}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/public/imports/thunkline_points.xlsx
+++ b/public/imports/thunkline_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F71C7C-D93F-4D28-84A0-F94C9425BD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF01056-84D2-43A8-BEB0-3879B2DB1387}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" xr2:uid="{187C6067-97B9-42CF-85B6-887F45F53DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Trunkline_Points" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="303">
   <si>
     <t>Начальная точка</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Uzel_K-13</t>
   </si>
   <si>
-    <t>[[52.97714273, 43.3828068], [52.97709398, 43.38273212]]</t>
-  </si>
-  <si>
     <t>BG</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>[[52.92952943, 43.39824915], [52.92950541, 43.39820312], [52.92899001, 43.39834248], [52.92853504, 43.39817206], [52.92753105, 43.39779599], [52.92652707, 43.39741991], [52.9255231, 43.39704382], [52.92470973, 43.39673912], [52.92466725, 43.39679053], [52.92454828, 43.39674891], [52.92446597, 43.39672011], [52.92450324, 43.3966551], [52.92367121, 43.39633495], [52.92267299, 43.39595084], [52.9217641, 43.39560108], [52.92166498, 43.39558697], [52.92055723, 43.39542926], [52.91944949, 43.39527154], [52.91882706, 43.39518291], [52.91879729, 43.39529106], [52.91846014, 43.39524424], [52.91735141, 43.39509026], [52.91624269, 43.39493626], [52.91513397, 43.39478226], [52.91402525, 43.39462825], [52.91396274, 43.39461956], [52.91293559, 43.39441432], [52.91204179, 43.39423571], [52.91201778, 43.39429678], [52.91190664, 43.39427589], [52.9108137, 43.39407051], [52.90972078, 43.39386512], [52.90923241, 43.39377334], [52.90861987, 43.39368535], [52.90751252, 43.39352629], [52.9071674, 43.39347672], [52.90639572, 43.39341125], [52.90527466, 43.39331614], [52.90480224, 43.39327606], [52.90464624, 43.39373848], [52.90437661, 43.39453769], [52.90426694, 43.39486278], [52.90384672, 43.3952429], [52.90348395, 43.39557105], [52.90389993, 43.39583415], [52.90392594, 43.3958506]]</t>
   </si>
   <si>
-    <t>[[52.92952943, 43.39824915], [52.92953786, 43.39817214], [52.92899203, 43.39832415], [52.92860579, 43.39817279], [52.92761156, 43.39778316], [52.92661735, 43.39739353], [52.92562316, 43.39700389], [52.92462897, 43.39661424], [52.9236348, 43.39622458], [52.92330565, 43.39609557], [52.92333276, 43.39605125], [52.92317688, 43.39598723], [52.923143, 43.39602662], [52.92275395, 43.39586794], [52.92232228, 43.39569187], [52.92227261, 43.39575924], [52.92180894, 43.39557329], [52.92177575, 43.39555998], [52.92070581, 43.39540522], [52.91959872, 43.39524507], [52.91878513, 43.39512737], [52.91875034, 43.3952411], [52.91861341, 43.39522202], [52.91750482, 43.3950675], [52.91639623, 43.39491297], [52.91528765, 43.39475843], [52.91515048, 43.3947393], [52.91518769, 43.39459009], [52.91503909, 43.39456534], [52.91499797, 43.39472105], [52.91459387, 43.39466581], [52.91397141, 43.39458071], [52.91349315, 43.39448667], [52.91240342, 43.39427241], [52.91201435, 43.3941959], [52.91198795, 43.39426169], [52.91137683, 43.39414514], [52.91028492, 43.39393688], [52.90924226, 43.393738], [52.90919236, 43.3937307], [52.9080858, 43.3935687], [52.90719162, 43.39343779], [52.90721109, 43.39334779], [52.90712136, 43.39333416], [52.90710112, 43.39333108], [52.90708024, 43.39342225], [52.90610519, 43.39334226], [52.90498364, 43.39325024], [52.90476604, 43.39323239], [52.90455038, 43.39387683], [52.90428279, 43.39467641], [52.90422613, 43.39484571], [52.90366883, 43.39535142], [52.90342009, 43.39557713], [52.90381474, 43.3958211], [52.90392594, 43.3958506]]</t>
-  </si>
-  <si>
     <t>U-GU-91</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>[[52.87604683, 43.41712605], [52.87694898, 43.41684185], [52.87708608, 43.41680468], [52.87814431, 43.41651776], [52.87920253, 43.41623083], [52.88026074, 43.41594389], [52.88131894, 43.41565694], [52.88132831, 43.4156544], [52.88234787, 43.41531817], [52.88337037, 43.41498097], [52.88337644, 43.4149788], [52.88439057, 43.41461706], [52.88540469, 43.41425531], [52.8855138, 43.41421638], [52.88642291, 43.41389976], [52.88744161, 43.41354495], [52.88748925, 43.41352836]]</t>
   </si>
   <si>
-    <t>K-2-BG</t>
-  </si>
-  <si>
     <t>UPSV-1</t>
   </si>
   <si>
@@ -678,9 +669,6 @@
     <t>[[52.909188, 43.40513538], [52.90887944, 43.40475055], [52.90854337, 43.40433139], [52.90832148, 43.40403518], [52.90789218, 43.40346209], [52.90777584, 43.40331472], [52.9073703, 43.40280102], [52.90729228, 43.40283295], [52.90720496, 43.40272792], [52.90725326, 43.40270456], [52.90728773, 43.40268789], [52.90713284, 43.40250157], [52.90675121, 43.40199838], [52.90659499, 43.4017924], [52.90621221, 43.40127524], [52.90608051, 43.40109731], [52.90588922, 43.40080588], [52.90572484, 43.40053331], [52.90531992, 43.39986186], [52.90526113, 43.39978325], [52.90474878, 43.39909808], [52.90472517, 43.39905907], [52.9044541, 43.39861119], [52.90429423, 43.39829874], [52.90420662, 43.39812751], [52.90420226, 43.39798847], [52.90365768, 43.3978306], [52.90363755, 43.39775821], [52.90341328, 43.39695158], [52.90318902, 43.39614495], [52.90311099, 43.39586426], [52.9034355, 43.39578334], [52.90352591, 43.39575244], [52.9036296, 43.39582061], [52.90375396, 43.39588621]]</t>
   </si>
   <si>
-    <t>[[52.909188, 43.40513538], [52.9086612, 43.40440746], [52.90813442, 43.40367954], [52.90803425, 43.40354112], [52.9075623, 43.40297029], [52.90725946, 43.402604], [52.90699482, 43.40225894], [52.90644388, 43.40154059], [52.90640101, 43.40148469], [52.90596482, 43.40079555], [52.90549183, 43.40004826], [52.90541645, 43.39992916], [52.90506402, 43.39943673], [52.90497313, 43.39931749], [52.90482003, 43.39911665], [52.90452183, 43.39862913], [52.90449262, 43.39857363], [52.90425751, 43.39812684], [52.90426428, 43.39795448], [52.90404865, 43.39788464], [52.90370176, 43.39777228], [52.90354614, 43.39723793], [52.90331169, 43.39643285], [52.90315438, 43.39589268], [52.90350202, 43.39579737], [52.90351708, 43.39579324], [52.90375396, 43.39588621]]</t>
-  </si>
-  <si>
     <t>BG GU-6</t>
   </si>
   <si>
@@ -780,39 +768,24 @@
     <t>[[52.89675462, 43.45056365], [52.89622348, 43.45084595], [52.89616868, 43.45087507], [52.89585689, 43.45105207], [52.895327, 43.45130692], [52.8952966, 43.45131335], [52.89431933, 43.45152011], [52.89421082, 43.4515405], [52.89370877, 43.45163484], [52.89326913, 43.4516949], [52.8931145, 43.45165527], [52.89276808, 43.45156646], [52.89208625, 43.45131782], [52.89202607, 43.45129588], [52.89106209, 43.45097054], [52.89078379, 43.45087661], [52.890391, 43.45075531], [52.89019337, 43.45069427], [52.89002767, 43.45063994], [52.88934587, 43.45041636], [52.88899532, 43.45030577], [52.88828176, 43.45008068], [52.88795805, 43.44997976], [52.88764102, 43.44988092], [52.88692364, 43.44964899], [52.88679139, 43.44960623], [52.8862959, 43.44945655], [52.8858848, 43.44932575], [52.88543931, 43.449184], [52.88485881, 43.44898163], [52.88437932, 43.44881446], [52.88383348, 43.44863632], [52.88317867, 43.44842261], [52.88280459, 43.44829659], [52.88216825, 43.44808222], [52.88177852, 43.44795232], [52.88125588, 43.44777812], [52.88074212, 43.44762534], [52.87969626, 43.44731432], [52.87894699, 43.44709149], [52.87864836, 43.44700701], [52.87781178, 43.44677035], [52.87760069, 43.44669989], [52.87657371, 43.44635711]]</t>
   </si>
   <si>
-    <t>[[52.89675462, 43.45056365], [52.89625064, 43.45077456], [52.89614885, 43.45081716], [52.89583706, 43.45099416], [52.89532211, 43.45124182], [52.89530717, 43.45124901], [52.89429949, 43.45146219], [52.89423898, 43.45147357], [52.89368894, 43.45157693], [52.8932493, 43.45163699], [52.89314142, 43.45160934], [52.89274825, 43.45150855], [52.89211074, 43.45127607], [52.89200624, 43.45123796], [52.89108723, 43.4509278], [52.89076396, 43.4508187], [52.89037118, 43.45069739], [52.89017354, 43.45063636], [52.89005304, 43.45059684], [52.88932604, 43.45035844], [52.88902097, 43.45026221], [52.88826193, 43.45002276], [52.88798379, 43.44993605], [52.88762119, 43.449823], [52.88694912, 43.44960572], [52.88677157, 43.44954831], [52.88627607, 43.44939864], [52.8859104, 43.44928229], [52.88541949, 43.44912608], [52.88488369, 43.4489393], [52.88435949, 43.44875655], [52.88385889, 43.44859317], [52.88315885, 43.44836469], [52.88282975, 43.44825382], [52.88214843, 43.4480243], [52.88180377, 43.44790942], [52.88123607, 43.44772021], [52.88076819, 43.44758107], [52.87972232, 43.44727005], [52.87892718, 43.44703357], [52.87867475, 43.44696216], [52.87779197, 43.44671243], [52.87762242, 43.44666298], [52.87657371, 43.44635711]]</t>
-  </si>
-  <si>
     <t>[[52.87657371, 43.44635711], [52.87653965, 43.44629443], [52.87649818, 43.44627743], [52.87635571, 43.44628582], [52.87609227, 43.44630132], [52.87545791, 43.44635063], [52.87523509, 43.44638354], [52.87424614, 43.44652962], [52.87412698, 43.44654291], [52.87325723, 43.44663996], [52.87300819, 43.44665336], [52.87204503, 43.44670517], [52.87188137, 43.44671068], [52.87110137, 43.44673692], [52.87075297, 43.44674901], [52.86992341, 43.44677777], [52.86962488, 43.44679137], [52.86849746, 43.44684275], [52.86831187, 43.4468512], [52.86736953, 43.44688768], [52.8671884, 43.44689469], [52.86624284, 43.44694652], [52.86577841, 43.44697198], [52.86511619, 43.44700619], [52.86460917, 43.44703238], [52.86398984, 43.44706867], [52.86381494, 43.44707892], [52.86286394, 43.44713547], [52.86247348, 43.44715868], [52.86181242, 43.44719716], [52.86173774, 43.4471983]]</t>
   </si>
   <si>
-    <t>[[52.87657371, 43.44635711], [52.87655946, 43.44635235], [52.87651799, 43.44633535], [52.8763466, 43.44634544], [52.87611208, 43.44635924], [52.87547772, 43.44640855], [52.87522646, 43.44644566], [52.87426595, 43.44658753], [52.87411811, 43.44660403], [52.87327704, 43.44669788], [52.87299906, 43.44671284], [52.87206484, 43.44676309], [52.87187219, 43.44676957], [52.87112118, 43.44679484], [52.8707438, 43.44680793], [52.86994322, 43.44683569], [52.86961572, 43.44685061], [52.86848831, 43.44690199], [52.86833168, 43.44690912], [52.86736036, 43.44694672], [52.8672082, 43.44695261], [52.86623371, 43.44700603], [52.86579822, 43.4470299], [52.86510705, 43.4470656], [52.86462897, 43.4470903], [52.86398072, 43.44712829], [52.86383474, 43.44713684], [52.86285482, 43.4471951], [52.86249328, 43.4472166], [52.86196658, 43.44724726], [52.86173774, 43.4471983]]</t>
-  </si>
-  <si>
     <t>BG GU6</t>
   </si>
   <si>
     <t>[[52.86173774, 43.4471983], [52.86165127, 43.44721857], [52.86153893, 43.4472449], [52.86133852, 43.44728436], [52.8607195, 43.44735929], [52.86054505, 43.44737889], [52.85957364, 43.447488], [52.85942933, 43.4475074], [52.85837629, 43.44764898], [52.85831817, 43.44765555], [52.85728857, 43.44777177], [52.85720198, 43.44778214], [52.85608732, 43.4479157], [52.85590787, 43.4479372], [52.85497529, 43.44806039], [52.85493284, 43.448066], [52.85417331, 43.44814312], [52.85385713, 43.44817725], [52.85311021, 43.44825788], [52.85274077, 43.4483029], [52.85219003, 43.44837001], [52.85162374, 43.44842478], [52.85142961, 43.44844356], [52.8507736, 43.44846025], [52.85050448, 43.4484112], [52.85021707, 43.44835882], [52.84942939, 43.44816053], [52.84932805, 43.44813502], [52.84884337, 43.44798807], [52.84838708, 43.44784372]]</t>
   </si>
   <si>
-    <t>[[52.86173774, 43.4471983], [52.86168667, 43.44719908], [52.86154172, 43.44720129], [52.86151092, 43.44720318], [52.86069971, 43.44730137], [52.86056983, 43.44731596], [52.85955384, 43.44743008], [52.8594539, 43.44744352], [52.8583565, 43.44759106], [52.85834295, 43.44759259], [52.85726877, 43.44771384], [52.8572267, 43.44771889], [52.85611204, 43.44785245], [52.85588808, 43.44787928], [52.85499988, 43.44799661], [52.85491304, 43.44800808], [52.85415351, 43.4480852], [52.85388196, 43.44811451], [52.85309042, 43.44819996], [52.85276547, 43.44823955], [52.85217024, 43.44831208], [52.85164867, 43.44836254], [52.85140982, 43.44838564], [52.85075381, 43.44840233], [52.85052846, 43.44836126], [52.85019728, 43.4483009], [52.84945224, 43.44811335], [52.84930826, 43.4480771], [52.84882358, 43.44793014], [52.84838708, 43.44784372]]</t>
-  </si>
-  <si>
     <t>[[52.84838708, 43.44784372], [52.8482151, 43.44773765], [52.84779113, 43.44762908], [52.84745284, 43.44754245], [52.84690498, 43.44741997], [52.84671813, 43.44737228], [52.84591755, 43.44716792], [52.84565016, 43.44710418], [52.84529935, 43.44702057], [52.84457531, 43.44685102], [52.84349988, 43.44659918], [52.84299094, 43.44647999], [52.84243322, 43.44632889], [52.841822, 43.4461633], [52.84136941, 43.44605241], [52.84059824, 43.44586346], [52.84029319, 43.44580337], [52.83945917, 43.4456391], [52.83920823, 43.44557561], [52.83858588, 43.44541815], [52.83817326, 43.44525299], [52.83772884, 43.44507509], [52.83719527, 43.44484144], [52.83688008, 43.44470342], [52.83622339, 43.44442201], [52.83601228, 43.44433154], [52.83570091, 43.44417266], [52.83522248, 43.44405598]]</t>
   </si>
   <si>
-    <t>[[52.84838708, 43.44784372], [52.84823489, 43.44779557], [52.84776533, 43.44767533], [52.84747262, 43.44760037], [52.84692476, 43.44747789], [52.84669231, 43.44741856], [52.84593733, 43.44722584], [52.84562402, 43.44715116], [52.84531914, 43.44707849], [52.84454909, 43.44689817], [52.84347366, 43.44664633], [52.84301072, 43.44653791], [52.84240771, 43.44637455], [52.84184178, 43.44622122], [52.84134338, 43.44609911], [52.84061802, 43.44592138], [52.84026632, 43.44585211], [52.83947895, 43.44569702], [52.83918236, 43.44562198], [52.83860565, 43.44547608], [52.83815068, 43.44529396], [52.83774862, 43.44513301], [52.83717363, 43.44488123], [52.83689986, 43.44476135], [52.83620152, 43.44446209], [52.83603205, 43.44438947], [52.83572068, 43.44423058], [52.83522248, 43.44405598]]</t>
-  </si>
-  <si>
     <t>BG-37</t>
   </si>
   <si>
     <t>[[52.83522248, 43.44405598], [52.83454144, 43.44376184], [52.83424607, 43.44364231], [52.83386805, 43.44348932], [52.83326106, 43.44323949], [52.83312894, 43.44318512], [52.83232505, 43.44283224], [52.83229213, 43.44281659], [52.83172804, 43.44254849], [52.83135395, 43.44235841], [52.83064811, 43.44199975], [52.83044311, 43.44187283], [52.83002117, 43.44161157], [52.82967749, 43.44139945], [52.82963785, 43.44142887], [52.82958416, 43.44139749], [52.82956888, 43.44138856], [52.82960325, 43.44135347], [52.82908989, 43.44102802], [52.82881472, 43.44084745], [52.82811675, 43.44038941], [52.8279728, 43.44029883], [52.82711793, 43.43976092], [52.82692987, 43.43964258], [52.82627406, 43.4392139], [52.8259634, 43.43901083], [52.82551275, 43.43860903], [52.82543252, 43.4385375], [52.82490431, 43.4380135], [52.8248396, 43.43794828], [52.82444241, 43.43754797], [52.82419195, 43.43727418], [52.82398013, 43.43704262], [52.82354601, 43.43659915], [52.82315733, 43.43620208], [52.82293704, 43.43590771], [52.82251429, 43.43534282], [52.82241036, 43.43517997], [52.82227559, 43.4349688], [52.82233198, 43.43494962], [52.82229557, 43.43488313], [52.82222926, 43.43489647], [52.8220287, 43.43449944], [52.82187699, 43.43419911], [52.82171978, 43.43384206], [52.82166497, 43.43372043], [52.82137555, 43.43307821], [52.82130627, 43.43294009], [52.82115879, 43.43264606], [52.82090326, 43.4321713], [52.82083381, 43.43204228], [52.82047364, 43.43141017], [52.82046177, 43.43138933], [52.82005469, 43.43065549], [52.82004295, 43.43065292], [52.8200265, 43.43064933], [52.81999252, 43.4306052], [52.81971318, 43.43022948], [52.81967278, 43.43016781], [52.81950682, 43.42993287], [52.81920309, 43.42950287]]</t>
   </si>
   <si>
-    <t>[[52.83522248, 43.44405598], [52.83421189, 43.44368832], [52.83414249, 43.44366307], [52.83324198, 43.44326681], [52.8329788, 43.44315101], [52.83228512, 43.44282953], [52.83133203, 43.44238782], [52.83132142, 43.4423829], [52.83044802, 43.44187558], [52.83026352, 43.44176841], [52.82956802, 43.44135962], [52.82952298, 43.44133315], [52.82871192, 43.44082277], [52.82846508, 43.44066744], [52.82785262, 43.44028862], [52.82751297, 43.44007854], [52.827065, 43.43970191], [52.82684296, 43.43951523], [52.82622278, 43.43915809], [52.82582032, 43.43892632], [52.82542818, 43.43857968], [52.82500926, 43.43820937], [52.82475774, 43.4379193], [52.82440979, 43.43751803], [52.82412795, 43.43723664], [52.82384557, 43.4369547], [52.82348388, 43.43656075], [52.82328136, 43.43634015], [52.82288372, 43.43586373], [52.82257609, 43.43549515], [52.82236943, 43.43513363], [52.82193514, 43.43437388], [52.82180029, 43.43413799], [52.82159313, 43.43359095], [52.82141239, 43.43311369], [52.8212483, 43.43280834], [52.82083646, 43.43204198], [52.82042463, 43.43127562], [52.82028395, 43.43101384], [52.81993905, 43.43053377], [52.81986079, 43.43042484], [52.81941769, 43.4298037], [52.81920309, 43.42950287]]</t>
-  </si>
-  <si>
     <t>[[52.81920309, 43.42950287], [52.81919912, 43.42949724], [52.818231, 43.42990856], [52.81725536, 43.43032306], [52.8168241, 43.43050627], [52.81627671, 43.43073375], [52.81529567, 43.43114144], [52.81431461, 43.43154911], [52.8137188, 43.43179669], [52.81333917, 43.43196377], [52.81247772, 43.43234288], [52.81237241, 43.4323892], [52.81140546, 43.43281442], [52.8104385, 43.43323964], [52.80996276, 43.43344884], [52.80947339, 43.43366708], [52.80851007, 43.43409668], [52.80777945, 43.43442249], [52.80754476, 43.43452388], [52.80751282, 43.43453768], [52.80749065, 43.43450653], [52.8073155, 43.43459319], [52.80724496, 43.43451375], [52.80667827, 43.43477427], [52.80665231, 43.43478855], [52.80645893, 43.43489492], [52.8065042, 43.43495514], [52.80620394, 43.43510038], [52.80583905, 43.4352696], [52.80564292, 43.43536054], [52.80489633, 43.43572279], [52.8042643, 43.43602945], [52.80395777, 43.4361806], [52.80313818, 43.43658473], [52.80310843, 43.43655172], [52.80303758, 43.43658686], [52.80306688, 43.43661682], [52.80223629, 43.43705069], [52.80218862, 43.43707339], [52.80124309, 43.43752354], [52.80088755, 43.4376928], [52.80030684, 43.4379838], [52.79962168, 43.43832712], [52.79937295, 43.43844664], [52.79879502, 43.43872436], [52.79842882, 43.43889837], [52.79827529, 43.43897132], [52.79780852, 43.43918507], [52.79747416, 43.43933818], [52.79681693, 43.43963914], [52.79684242, 43.43968672], [52.79666856, 43.43975929], [52.7966309, 43.43971821], [52.79661787, 43.43972361], [52.79620682, 43.43989385], [52.7956359, 43.4401303], [52.79518723, 43.44031612], [52.79464305, 43.44052241], [52.79422346, 43.44068146], [52.79366675, 43.44093505], [52.79307217, 43.44120589], [52.79271531, 43.44137847], [52.79178687, 43.44182746], [52.79177878, 43.44181807], [52.79174069, 43.44177382], [52.79076152, 43.44206552], [52.79047496, 43.44215089], [52.78971889, 43.44238207], [52.78943377, 43.44246925], [52.7886837, 43.44271129], [52.78806626, 43.44291052], [52.78766094, 43.44305999], [52.78716675, 43.44324222], [52.78668032, 43.44346656], [52.78613413, 43.44371846], [52.78573527, 43.44391713], [52.78480275, 43.44438159], [52.78471033, 43.44442762], [52.78418271, 43.44472892], [52.7839111, 43.44488658], [52.78349453, 43.44512839], [52.78350652, 43.44514539], [52.78305869, 43.4454032], [52.78283318, 43.44553302], [52.7824928, 43.44568131]]</t>
   </si>
   <si>
@@ -958,6 +931,9 @@
   </si>
   <si>
     <t>ГУ-57</t>
+  </si>
+  <si>
+    <t>[[52.97709398, 43.38273212], [52.97714273, 43.3828068]]</t>
   </si>
 </sst>
 </file>
@@ -989,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,6 +1053,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1387,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4909E-F074-42A7-961F-16B93AFF1F24}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2312,13 +2298,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="D66" s="7" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2329,10 +2315,10 @@
         <v>96</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2346,7 +2332,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2357,10 +2343,10 @@
         <v>90</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2374,7 +2360,7 @@
         <v>133</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2388,7 +2374,7 @@
         <v>93</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2399,10 +2385,10 @@
         <v>130</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2410,13 +2396,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2424,13 +2410,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2444,7 +2430,7 @@
         <v>130</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2458,7 +2444,7 @@
         <v>120</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2466,13 +2452,13 @@
         <v>3</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2483,10 +2469,10 @@
         <v>115</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2500,7 +2486,7 @@
         <v>115</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2508,13 +2494,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2522,13 +2508,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2536,13 +2522,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
@@ -2550,27 +2536,27 @@
         <v>3</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="7">
-        <v>3</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2578,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="11" t="s">
         <v>170</v>
       </c>
+      <c r="C85" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="D85" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2592,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>173</v>
@@ -2633,11 +2619,11 @@
       <c r="A89" s="7">
         <v>1</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>179</v>
+      <c r="C89" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>180</v>
@@ -2647,14 +2633,14 @@
       <c r="A90" s="7">
         <v>1</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -2662,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>184</v>
@@ -2690,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2707,10 +2693,10 @@
         <v>189</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -2718,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2732,13 +2718,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -2746,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2760,13 +2746,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -2774,41 +2760,41 @@
         <v>1</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="15">
+        <v>1</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" s="7">
+    <row r="101" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="7">
         <v>1</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C100" s="10" t="s">
+      <c r="B101" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="15">
-        <v>1</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -2816,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -2830,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -2844,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -2858,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -2872,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -2886,41 +2872,41 @@
         <v>1</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D107" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="12">
+        <v>1</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="7">
+        <v>1</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" s="7">
-        <v>1</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="12">
-        <v>1</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -2928,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -2942,13 +2928,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -2956,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -2970,40 +2956,40 @@
         <v>1</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A114" s="7">
-        <v>1</v>
-      </c>
-      <c r="B114" s="10" t="s">
+      <c r="D114" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D114" s="7" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A115" s="7">
-        <v>1</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3012,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>218</v>
@@ -3026,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>220</v>
@@ -3040,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>222</v>
@@ -3054,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>224</v>
@@ -3068,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>226</v>
@@ -3082,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" t="s">
         <v>228</v>
-      </c>
-      <c r="D121" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -3096,13 +3082,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -3110,13 +3096,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -3124,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
         <v>233</v>
@@ -3138,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>234</v>
@@ -3152,13 +3138,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C126" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" t="s">
         <v>236</v>
-      </c>
-      <c r="D126" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -3166,13 +3152,13 @@
         <v>2</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -3180,13 +3166,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" t="s">
         <v>238</v>
-      </c>
-      <c r="D128" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -3194,13 +3180,13 @@
         <v>2</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D129" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -3208,10 +3194,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D130" t="s">
         <v>242</v>
@@ -3222,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>243</v>
@@ -3236,13 +3222,13 @@
         <v>2</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="C132" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" t="s">
         <v>245</v>
-      </c>
-      <c r="D132" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -3250,27 +3236,27 @@
         <v>2</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>2</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>224</v>
+      <c r="B134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>232</v>
       </c>
       <c r="D134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -3278,13 +3264,13 @@
         <v>2</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -3292,13 +3278,13 @@
         <v>2</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -3306,10 +3292,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D137" t="s">
         <v>252</v>
@@ -3320,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D138" t="s">
         <v>253</v>
@@ -3334,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>254</v>
@@ -3348,10 +3334,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D140" t="s">
         <v>256</v>
@@ -3362,10 +3348,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D141" t="s">
         <v>257</v>
@@ -3376,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="D142" t="s">
         <v>258</v>
@@ -3390,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>259</v>
@@ -3404,10 +3390,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="D144" t="s">
         <v>261</v>
@@ -3418,10 +3404,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D145" t="s">
         <v>262</v>
@@ -3432,10 +3418,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
         <v>264</v>
@@ -3446,13 +3432,13 @@
         <v>2</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -3460,13 +3446,13 @@
         <v>2</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D148" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
@@ -3474,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D149" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
@@ -3488,13 +3474,13 @@
         <v>2</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D150" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -3502,13 +3488,13 @@
         <v>2</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D151" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -3516,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D152" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
@@ -3530,13 +3516,13 @@
         <v>2</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
@@ -3544,13 +3530,13 @@
         <v>2</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
@@ -3558,13 +3544,13 @@
         <v>2</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
